--- a/Config/Nyanza_parameters.xlsx
+++ b/Config/Nyanza_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5CB21E-85B2-4F84-A103-F52BA9AAB296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C132041-4EB9-458A-9628-19B518DC14BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6113" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="4770" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -3310,9 +3310,6 @@
     <t>Based on fertility input from 1950</t>
   </si>
   <si>
-    <t>Source: KAIS 2012  (validation target)</t>
-  </si>
-  <si>
     <t>All men</t>
   </si>
   <si>
@@ -4175,6 +4172,9 @@
   </si>
   <si>
     <t xml:space="preserve">* values were originally 1 and 5, increased to 19 and 18 to be consistent with neighboring age groups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: KAIS 2012  </t>
   </si>
 </sst>
 </file>
@@ -4196,7 +4196,7 @@
     <numFmt numFmtId="174" formatCode="##0.0000;\-##0.0000;0.000"/>
     <numFmt numFmtId="175" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4439,6 +4439,12 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4925,7 +4931,7 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5003,8 +5009,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5045,9 +5049,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -34575,16 +34582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>218048</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38124</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532373</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34607,8 +34614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12792074" y="2628900"/>
-          <a:ext cx="4561449" cy="3333774"/>
+          <a:off x="8048624" y="5895975"/>
+          <a:ext cx="4866249" cy="3171849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34752,7 +34759,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>41304</xdr:rowOff>
+      <xdr:rowOff>46066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34998,7 +35005,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>412806</xdr:colOff>
+      <xdr:colOff>417568</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -35406,8 +35413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37704,7 +37711,7 @@
       <c r="B57">
         <v>2009</v>
       </c>
-      <c r="C57" s="82">
+      <c r="C57" s="80">
         <v>5442711</v>
       </c>
       <c r="D57">
@@ -39917,7 +39924,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="126" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.45">
@@ -41757,49 +41764,49 @@
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B164" s="78" t="s">
+      <c r="B164" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="C164" s="79">
+      <c r="C164" s="77">
         <v>29.832999999999998</v>
       </c>
-      <c r="D164" s="80">
+      <c r="D164" s="78">
         <v>36.995000000000005</v>
       </c>
-      <c r="E164" s="79">
+      <c r="E164" s="77">
         <v>30.677999999999997</v>
       </c>
-      <c r="F164" s="80">
+      <c r="F164" s="78">
         <v>40.189</v>
       </c>
-      <c r="G164" s="79">
+      <c r="G164" s="77">
         <v>28.76</v>
       </c>
-      <c r="H164" s="80">
+      <c r="H164" s="78">
         <v>45.019999999999989</v>
       </c>
-      <c r="I164" s="79">
+      <c r="I164" s="77">
         <v>27.613</v>
       </c>
-      <c r="J164" s="80">
+      <c r="J164" s="78">
         <v>49.994</v>
       </c>
-      <c r="K164" s="79">
+      <c r="K164" s="77">
         <v>30.65</v>
       </c>
-      <c r="L164" s="80">
+      <c r="L164" s="78">
         <v>57.32</v>
       </c>
-      <c r="M164" s="79">
+      <c r="M164" s="77">
         <v>39.680999999999997</v>
       </c>
-      <c r="N164" s="80">
+      <c r="N164" s="78">
         <v>73.600999999999999</v>
       </c>
-      <c r="O164" s="79">
+      <c r="O164" s="77">
         <v>50.151000000000003</v>
       </c>
-      <c r="P164" s="80">
+      <c r="P164" s="78">
         <v>94.126999999999995</v>
       </c>
     </row>
@@ -41839,16 +41846,16 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
       <c r="F167" s="49"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77" t="s">
-        <v>1287</v>
+      <c r="G167" s="75"/>
+      <c r="H167" s="75" t="s">
+        <v>1286</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -41861,7 +41868,7 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>1925</v>
+        <v>1960</v>
       </c>
       <c r="B168" s="49" t="s">
         <v>217</v>
@@ -41877,36 +41884,36 @@
         <v>196</v>
       </c>
       <c r="I168" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J168" s="74" t="s">
         <v>1240</v>
       </c>
-      <c r="J168" s="76" t="s">
+      <c r="K168" s="74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L168" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M168" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N168" s="74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O168" s="49" t="s">
         <v>1241</v>
-      </c>
-      <c r="K168" s="76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L168" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="M168" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="N168" s="76" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O168" s="49" t="s">
-        <v>1242</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
       <c r="R168" s="37"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B169">
-        <v>37.479574379311231</v>
-      </c>
-      <c r="C169" s="50">
-        <v>40.828189813666143</v>
+      <c r="B169" s="83">
+        <v>126.2984625</v>
+      </c>
+      <c r="C169" s="83">
+        <v>136.08551</v>
       </c>
       <c r="H169">
         <v>1990</v>
@@ -41944,11 +41951,11 @@
       <c r="R169" s="50"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B170">
-        <v>22.606553589983712</v>
-      </c>
-      <c r="C170">
-        <v>24.699510745699914</v>
+      <c r="B170" s="83">
+        <v>97.732529999999997</v>
+      </c>
+      <c r="C170" s="83">
+        <v>106.32208</v>
       </c>
       <c r="D170" s="50"/>
       <c r="E170" s="50"/>
@@ -41990,11 +41997,11 @@
       <c r="R170" s="50"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B171">
-        <v>17.363101902251611</v>
-      </c>
-      <c r="C171">
-        <v>18.869799338135071</v>
+      <c r="B171" s="83">
+        <v>73.008652499999997</v>
+      </c>
+      <c r="C171" s="83">
+        <v>78.883399999999995</v>
       </c>
       <c r="H171">
         <v>2000</v>
@@ -42032,11 +42039,11 @@
       <c r="R171" s="50"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B172">
-        <v>15.60765965375769</v>
-      </c>
-      <c r="C172">
-        <v>16.547673460297712</v>
+      <c r="B172" s="83">
+        <v>52.485457500000003</v>
+      </c>
+      <c r="C172" s="83">
+        <v>56.426569999999998</v>
       </c>
       <c r="H172">
         <v>2005</v>
@@ -42074,11 +42081,11 @@
       <c r="R172" s="50"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B173">
-        <v>14.35160836565742</v>
-      </c>
-      <c r="C173">
-        <v>14.660023512264804</v>
+      <c r="B173" s="83">
+        <v>48.438180000000003</v>
+      </c>
+      <c r="C173" s="83">
+        <v>52.53969</v>
       </c>
       <c r="H173">
         <v>2010</v>
@@ -42116,11 +42123,11 @@
       <c r="R173" s="50"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B174">
-        <v>13.33786366775832</v>
-      </c>
-      <c r="C174">
-        <v>12.910921807832805</v>
+      <c r="B174" s="83">
+        <v>46.012207500000002</v>
+      </c>
+      <c r="C174" s="83">
+        <v>48.895569999999999</v>
       </c>
       <c r="H174" s="16">
         <v>2015</v>
@@ -42155,11 +42162,11 @@
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B175">
-        <v>12.626729262881366</v>
-      </c>
-      <c r="C175">
-        <v>11.639955784140142</v>
+      <c r="B175" s="83">
+        <v>39.032595000000001</v>
+      </c>
+      <c r="C175" s="83">
+        <v>40.154000000000003</v>
       </c>
       <c r="H175">
         <v>2020</v>
@@ -42194,57 +42201,57 @@
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B176">
-        <v>12.429012646310639</v>
-      </c>
-      <c r="C176">
-        <v>10.795333117773453</v>
-      </c>
-      <c r="H176" s="77" t="s">
-        <v>1288</v>
+      <c r="B176" s="83">
+        <v>32.825519999999997</v>
+      </c>
+      <c r="C176" s="83">
+        <v>32.339779999999998</v>
+      </c>
+      <c r="H176" s="75" t="s">
+        <v>1287</v>
       </c>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
       <c r="L176" s="37"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B177">
-        <v>12.486837074330346</v>
-      </c>
-      <c r="C177">
-        <v>10.507511899387467</v>
+      <c r="B177" s="83">
+        <v>28.021455</v>
+      </c>
+      <c r="C177" s="83">
+        <v>27.549689999999998</v>
       </c>
       <c r="H177" s="49" t="s">
         <v>196</v>
       </c>
       <c r="I177" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J177" s="74" t="s">
         <v>1240</v>
       </c>
-      <c r="J177" s="76" t="s">
+      <c r="K177" s="74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L177" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M177" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N177" s="74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O177" s="49" t="s">
         <v>1241</v>
       </c>
-      <c r="K177" s="76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L177" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="M177" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="N177" s="76" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O177" s="49" t="s">
-        <v>1242</v>
-      </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B178">
-        <v>12.08988973878297</v>
-      </c>
-      <c r="C178">
-        <v>10.769109652189501</v>
+      <c r="B178" s="83">
+        <v>24.691432500000001</v>
+      </c>
+      <c r="C178" s="83">
+        <v>23.62031</v>
       </c>
       <c r="H178" s="37">
         <v>1990</v>
@@ -42279,11 +42286,11 @@
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B179">
-        <v>10.781718656832938</v>
-      </c>
-      <c r="C179">
-        <v>10.590173875949343</v>
+      <c r="B179" s="83">
+        <v>21.406140000000001</v>
+      </c>
+      <c r="C179" s="83">
+        <v>21.076429999999998</v>
       </c>
       <c r="H179" s="37">
         <v>1995</v>
@@ -42318,11 +42325,11 @@
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B180">
-        <v>8.3156248242511275</v>
-      </c>
-      <c r="C180">
-        <v>9.16236306341046</v>
+      <c r="B180" s="83">
+        <v>17.112847500000001</v>
+      </c>
+      <c r="C180" s="83">
+        <v>19.029630000000001</v>
       </c>
       <c r="H180" s="37">
         <v>2000</v>
@@ -42357,11 +42364,11 @@
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B181">
-        <v>6.2097151497531744</v>
-      </c>
-      <c r="C181">
-        <v>7.7180775577919123</v>
+      <c r="B181" s="83">
+        <v>13.4516025</v>
+      </c>
+      <c r="C181" s="83">
+        <v>16.078939999999999</v>
       </c>
       <c r="H181" s="37">
         <v>2005</v>
@@ -42396,11 +42403,11 @@
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B182">
-        <v>4.3902799839049758</v>
-      </c>
-      <c r="C182">
-        <v>6.2300561728754413</v>
+      <c r="B182" s="83">
+        <v>9.7120800000000003</v>
+      </c>
+      <c r="C182" s="83">
+        <v>12.22504</v>
       </c>
       <c r="H182" s="37">
         <v>2010</v>
@@ -42435,11 +42442,11 @@
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B183">
-        <v>2.607027702045718</v>
-      </c>
-      <c r="C183">
-        <v>4.2509630460988879</v>
+      <c r="B183" s="83">
+        <v>6.4255275000000003</v>
+      </c>
+      <c r="C183" s="83">
+        <v>8.4170400000000001</v>
       </c>
       <c r="H183" s="16">
         <v>2015</v>
@@ -42474,11 +42481,11 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B184">
-        <v>1.2450956698792659</v>
-      </c>
-      <c r="C184">
-        <v>2.4961903340346363</v>
+      <c r="B184" s="83">
+        <v>3.4686224999999999</v>
+      </c>
+      <c r="C184" s="83">
+        <v>4.9806600000000003</v>
       </c>
       <c r="H184">
         <v>2020</v>
@@ -42516,8 +42523,8 @@
       <c r="H185" s="37"/>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H186" s="77" t="s">
-        <v>1289</v>
+      <c r="H186" s="75" t="s">
+        <v>1288</v>
       </c>
       <c r="I186" s="37"/>
       <c r="J186" s="37"/>
@@ -42532,25 +42539,25 @@
         <v>196</v>
       </c>
       <c r="I187" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J187" s="74" t="s">
         <v>1240</v>
       </c>
-      <c r="J187" s="76" t="s">
+      <c r="K187" s="74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L187" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M187" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N187" s="74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O187" s="49" t="s">
         <v>1241</v>
-      </c>
-      <c r="K187" s="76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L187" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="M187" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="N187" s="76" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O187" s="49" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.45">
@@ -42786,10 +42793,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H196" s="77" t="s">
-        <v>1329</v>
+        <v>1293</v>
+      </c>
+      <c r="H196" s="75" t="s">
+        <v>1328</v>
       </c>
       <c r="I196" s="49"/>
       <c r="J196" s="49"/>
@@ -42804,13 +42811,13 @@
         <v>1071</v>
       </c>
       <c r="C197" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E197" t="s">
         <v>1295</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1296</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37"/>
@@ -42818,25 +42825,25 @@
         <v>196</v>
       </c>
       <c r="I197" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J197" s="74" t="s">
         <v>1240</v>
       </c>
-      <c r="J197" s="76" t="s">
+      <c r="K197" s="74" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L197" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M197" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N197" s="74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O197" s="49" t="s">
         <v>1241</v>
-      </c>
-      <c r="K197" s="76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L197" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="M197" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="N197" s="76" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O197" s="49" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.45">
@@ -42994,13 +43001,13 @@
         <v>1071</v>
       </c>
       <c r="C203" s="37" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E203" s="37" t="s">
         <v>1297</v>
-      </c>
-      <c r="D203" s="37" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>1298</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -43083,13 +43090,13 @@
         <v>1071</v>
       </c>
       <c r="C209" s="37" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E209" s="37" t="s">
         <v>1299</v>
-      </c>
-      <c r="D209" s="37" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E209" s="37" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.45">
@@ -43162,13 +43169,13 @@
         <v>1071</v>
       </c>
       <c r="C215" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E215" t="s">
         <v>1301</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.45">
@@ -43241,13 +43248,13 @@
         <v>1071</v>
       </c>
       <c r="C221" s="37" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E221" s="37" t="s">
         <v>1323</v>
-      </c>
-      <c r="D221" s="37" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E221" s="37" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.45">
@@ -43322,13 +43329,13 @@
         <v>1071</v>
       </c>
       <c r="C227" s="37" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D227" s="37" t="s">
         <v>1326</v>
       </c>
-      <c r="D227" s="37" t="s">
+      <c r="E227" s="37" t="s">
         <v>1327</v>
-      </c>
-      <c r="E227" s="37" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.45">
@@ -43414,8 +43421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD243"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43461,10 +43468,10 @@
         <v>144</v>
       </c>
       <c r="J3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K3" t="s">
         <v>1330</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1331</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>80</v>
@@ -43473,28 +43480,28 @@
         <v>222</v>
       </c>
       <c r="P3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1243</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1244</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>217</v>
       </c>
       <c r="S3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="T3" t="s">
         <v>1243</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1244</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>144</v>
       </c>
       <c r="V3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="W3" t="s">
         <v>1243</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
@@ -43959,13 +43966,13 @@
         <v>392</v>
       </c>
       <c r="O11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R11" s="8">
         <v>20.7746</v>
@@ -44301,7 +44308,7 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="53" t="s">
-        <v>1085</v>
+        <v>1373</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -44393,15 +44400,14 @@
       <c r="B34" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="E34" s="54"/>
+      <c r="C34" s="90">
+        <v>5</v>
+      </c>
+      <c r="D34" s="90">
+        <v>2</v>
+      </c>
       <c r="F34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G34" s="37">
         <v>1</v>
@@ -44431,15 +44437,14 @@
       <c r="B35" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C35" s="55">
-        <v>0.1414</v>
-      </c>
-      <c r="D35" s="55">
-        <v>2.93E-2</v>
-      </c>
-      <c r="E35" s="54"/>
+      <c r="C35" s="90">
+        <v>14.14</v>
+      </c>
+      <c r="D35" s="90">
+        <v>2.93</v>
+      </c>
       <c r="F35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G35" s="37">
         <v>3.1</v>
@@ -44469,15 +44474,14 @@
       <c r="B36" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="D36" s="55">
-        <v>0.21</v>
-      </c>
-      <c r="E36" s="54"/>
+      <c r="C36" s="90">
+        <v>25</v>
+      </c>
+      <c r="D36" s="90">
+        <v>21</v>
+      </c>
       <c r="F36" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G36" s="37">
         <v>6.3</v>
@@ -44507,15 +44511,14 @@
       <c r="B37" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="55">
-        <v>0.21</v>
-      </c>
-      <c r="D37" s="55">
-        <v>0.24</v>
-      </c>
-      <c r="E37" s="54"/>
+      <c r="C37" s="90">
+        <v>21</v>
+      </c>
+      <c r="D37" s="90">
+        <v>24</v>
+      </c>
       <c r="F37" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G37" s="37">
         <v>6.6</v>
@@ -44545,15 +44548,14 @@
       <c r="B38" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="55">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D38" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="54"/>
+      <c r="C38" s="90">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="D38" s="90">
+        <v>20</v>
+      </c>
       <c r="F38" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G38" s="37">
         <v>8.6999999999999993</v>
@@ -44583,15 +44585,14 @@
       <c r="B39" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="55">
-        <v>0.17</v>
-      </c>
-      <c r="D39" s="55">
-        <v>0.31</v>
-      </c>
-      <c r="E39" s="54"/>
+      <c r="C39" s="90">
+        <v>17</v>
+      </c>
+      <c r="D39" s="90">
+        <v>31</v>
+      </c>
       <c r="F39" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G39" s="37">
         <v>9.3000000000000007</v>
@@ -44621,15 +44622,15 @@
       <c r="B40" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="55">
-        <v>0.23</v>
-      </c>
-      <c r="D40" s="55">
-        <v>0.16</v>
-      </c>
-      <c r="E40" s="54"/>
+      <c r="C40" s="90">
+        <v>23</v>
+      </c>
+      <c r="D40" s="90">
+        <v>16</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" s="21" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G40" s="37">
         <v>9.8000000000000007</v>
@@ -44652,15 +44653,15 @@
       <c r="B41" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="C41" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="D41" s="55">
-        <v>0.21</v>
-      </c>
-      <c r="E41" s="54"/>
+      <c r="C41" s="90">
+        <v>12</v>
+      </c>
+      <c r="D41" s="90">
+        <v>21</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" s="21" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G41" s="37">
         <v>8.4</v>
@@ -44683,15 +44684,15 @@
       <c r="B42" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="C42" s="55">
-        <v>0.06</v>
-      </c>
-      <c r="D42" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="E42" s="54"/>
+      <c r="C42" s="90">
+        <v>6</v>
+      </c>
+      <c r="D42" s="90">
+        <v>12</v>
+      </c>
+      <c r="E42"/>
       <c r="F42" s="21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G42" s="37">
         <v>4.4000000000000004</v>
@@ -44714,15 +44715,15 @@
       <c r="B43" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="C43" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="D43" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="E43" s="54"/>
+      <c r="C43" s="90">
+        <v>4</v>
+      </c>
+      <c r="D43" s="90">
+        <v>12</v>
+      </c>
+      <c r="E43"/>
       <c r="F43" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G43" s="37">
         <v>4</v>
@@ -44745,13 +44746,12 @@
       <c r="B44" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C44" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="D44" s="55">
-        <v>5.11E-2</v>
-      </c>
-      <c r="E44" s="54"/>
+      <c r="C44" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="90">
+        <v>5.1100000000000003</v>
+      </c>
       <c r="F44" t="s">
         <v>144</v>
       </c>
@@ -44795,13 +44795,12 @@
       <c r="B45" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="90">
         <v>0</v>
       </c>
-      <c r="D45" s="55">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E45" s="54"/>
+      <c r="D45" s="90">
+        <v>1.6500000000000001</v>
+      </c>
       <c r="H45">
         <f>G44-H44</f>
         <v>0.69999999999999929</v>
@@ -44823,13 +44822,12 @@
       <c r="B46" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="90">
         <v>0</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="90">
         <v>0</v>
       </c>
-      <c r="E46" s="54"/>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
@@ -44843,14 +44841,14 @@
       <c r="B47" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="56">
-        <v>0.16</v>
-      </c>
-      <c r="D47" s="56">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E47" s="56">
-        <v>0.15</v>
+      <c r="C47" s="89">
+        <v>16</v>
+      </c>
+      <c r="D47" s="89">
+        <v>14</v>
+      </c>
+      <c r="E47" s="89">
+        <v>15</v>
       </c>
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
@@ -45042,28 +45040,28 @@
         <v>222</v>
       </c>
       <c r="D61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E61" t="s">
         <v>1243</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1244</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H61" t="s">
         <v>1243</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1244</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>144</v>
       </c>
       <c r="J61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K61" t="s">
         <v>1243</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1244</v>
       </c>
       <c r="M61" s="37" t="s">
         <v>80</v>
@@ -45072,28 +45070,28 @@
         <v>222</v>
       </c>
       <c r="O61" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P61" s="37" t="s">
         <v>1243</v>
-      </c>
-      <c r="P61" s="37" t="s">
-        <v>1244</v>
       </c>
       <c r="Q61" s="37" t="s">
         <v>217</v>
       </c>
       <c r="R61" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S61" s="37" t="s">
         <v>1243</v>
-      </c>
-      <c r="S61" s="37" t="s">
-        <v>1244</v>
       </c>
       <c r="T61" s="37" t="s">
         <v>144</v>
       </c>
       <c r="U61" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="V61" s="37" t="s">
         <v>1243</v>
-      </c>
-      <c r="V61" s="37" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
@@ -45535,13 +45533,13 @@
         <v>392</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D69" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E69" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F69" s="8">
         <v>15.9094</v>
@@ -45553,7 +45551,7 @@
         <v>28.742100000000001</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J69" s="8">
         <v>3.0767000000000002</v>
@@ -45565,13 +45563,13 @@
         <v>392</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P69" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q69" s="7">
         <v>9.1097999999999999</v>
@@ -45582,7 +45580,7 @@
       <c r="S69" s="7">
         <v>15.9191</v>
       </c>
-      <c r="T69" s="83">
+      <c r="T69" s="81">
         <v>9.1097999999999999</v>
       </c>
       <c r="U69" s="8">
@@ -45817,99 +45815,130 @@
       <c r="I85" s="21"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B86">
+      <c r="B86" s="82">
         <v>1983</v>
       </c>
       <c r="C86" s="12">
         <v>2E-3</v>
       </c>
       <c r="E86">
-        <v>2E-3</v>
+        <v>1983</v>
+      </c>
+      <c r="F86" s="82">
+        <v>0.2</v>
       </c>
       <c r="I86" s="21"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B87">
+      <c r="B87" s="82">
         <v>1987</v>
       </c>
       <c r="C87" s="12">
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="E87">
-        <v>2.0899999999999998E-2</v>
-      </c>
+        <v>1987</v>
+      </c>
+      <c r="F87" s="82">
+        <v>2.09</v>
+      </c>
+      <c r="G87" s="82"/>
       <c r="I87" s="21"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B88">
+      <c r="B88" s="82">
         <v>1990</v>
       </c>
       <c r="C88" s="12">
         <v>0.12330000000000001</v>
       </c>
       <c r="E88">
-        <v>0.12330000000000001</v>
-      </c>
+        <v>1990</v>
+      </c>
+      <c r="F88" s="82">
+        <v>12.33</v>
+      </c>
+      <c r="G88" s="82"/>
       <c r="I88" s="21"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B89">
+      <c r="B89" s="82">
         <v>1994</v>
       </c>
       <c r="C89" s="12">
         <v>0.24310000000000001</v>
       </c>
       <c r="E89">
-        <v>0.24310000000000001</v>
-      </c>
+        <v>1994</v>
+      </c>
+      <c r="F89" s="82">
+        <v>24.310000000000002</v>
+      </c>
+      <c r="G89" s="82"/>
       <c r="I89" s="21"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B90">
+      <c r="B90" s="82">
         <v>1999</v>
       </c>
       <c r="C90" s="12">
         <v>0.23019999999999999</v>
       </c>
       <c r="E90">
-        <v>0.23019999999999999</v>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="F90" s="82">
+        <v>23.02</v>
+      </c>
+      <c r="G90" s="82"/>
       <c r="I90" s="21"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B91">
+      <c r="B91" s="82">
         <v>2003</v>
       </c>
       <c r="C91" s="12">
         <v>0.17100000000000001</v>
       </c>
       <c r="E91">
-        <v>0.17100000000000001</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="F91" s="82">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G91" s="82"/>
       <c r="I91" s="21"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B92">
+      <c r="B92" s="82">
         <v>2007</v>
       </c>
       <c r="C92" s="12">
         <v>0.13719999999999999</v>
       </c>
       <c r="E92">
-        <v>0.13719999999999999</v>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="F92" s="82">
+        <v>13.719999999999999</v>
+      </c>
+      <c r="G92" s="82"/>
       <c r="I92" s="21"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B93">
+      <c r="B93" s="82">
         <v>2011</v>
       </c>
       <c r="C93" s="12">
         <v>0.1419</v>
       </c>
       <c r="E93">
-        <v>0.1419</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="F93" s="82">
+        <v>14.19</v>
+      </c>
+      <c r="G93" s="82"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B94" s="33">
@@ -45921,9 +45950,13 @@
       <c r="D94" t="s">
         <v>592</v>
       </c>
-      <c r="E94">
-        <v>0.14560000000000001</v>
-      </c>
+      <c r="E94" s="87">
+        <v>2015</v>
+      </c>
+      <c r="F94" s="82">
+        <v>14.56</v>
+      </c>
+      <c r="G94" s="82"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B95" s="33">
@@ -45932,9 +45965,13 @@
       <c r="C95" s="34">
         <v>0.12520000000000001</v>
       </c>
-      <c r="E95">
-        <v>0.12520000000000001</v>
-      </c>
+      <c r="E95" s="87">
+        <v>2019</v>
+      </c>
+      <c r="F95" s="82">
+        <v>12.520000000000001</v>
+      </c>
+      <c r="G95" s="82"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
@@ -46693,24 +46730,24 @@
       <c r="B165" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C165" s="57">
+      <c r="C165" s="55">
         <v>21.9166666666666</v>
       </c>
-      <c r="F165" s="57">
+      <c r="F165" s="55">
         <v>23.1666666666666</v>
       </c>
       <c r="I165" s="44" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="166" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B166" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C166" s="58">
+      <c r="C166" s="56">
         <v>37</v>
       </c>
-      <c r="F166" s="57">
+      <c r="F166" s="55">
         <v>38.8333333333333</v>
       </c>
     </row>
@@ -46718,10 +46755,10 @@
       <c r="B167" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C167" s="58">
+      <c r="C167" s="56">
         <v>36</v>
       </c>
-      <c r="F167" s="57">
+      <c r="F167" s="55">
         <v>37.6666666666666</v>
       </c>
     </row>
@@ -46729,10 +46766,10 @@
       <c r="B168" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C168" s="57">
+      <c r="C168" s="55">
         <v>27.5</v>
       </c>
-      <c r="F168" s="57">
+      <c r="F168" s="55">
         <v>29.75</v>
       </c>
     </row>
@@ -46740,10 +46777,10 @@
       <c r="B169" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="C169" s="58">
+      <c r="C169" s="56">
         <v>24</v>
       </c>
-      <c r="F169" s="57">
+      <c r="F169" s="55">
         <v>29.9166666666666</v>
       </c>
     </row>
@@ -46772,7 +46809,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B171" s="37" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C171" s="37">
         <v>23.2</v>
@@ -46949,7 +46986,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.45">
@@ -46966,7 +47003,7 @@
         <v>576</v>
       </c>
       <c r="G183" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I183" t="s">
         <v>222</v>
@@ -48129,7 +48166,7 @@
       <c r="E213" s="40">
         <v>5.2</v>
       </c>
-      <c r="G213" s="84">
+      <c r="G213" s="82">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
@@ -48153,94 +48190,94 @@
       </c>
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C214" s="84"/>
+      <c r="C214" s="82"/>
     </row>
     <row r="215" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C215" s="84"/>
+      <c r="C215" s="82"/>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C216" s="84"/>
+      <c r="C216" s="82"/>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C217" s="84"/>
+      <c r="C217" s="82"/>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C218" s="84"/>
+      <c r="C218" s="82"/>
     </row>
     <row r="219" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C219" s="84"/>
+      <c r="C219" s="82"/>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C220" s="84"/>
+      <c r="C220" s="82"/>
     </row>
     <row r="221" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C221" s="84"/>
+      <c r="C221" s="82"/>
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C222" s="84"/>
+      <c r="C222" s="82"/>
     </row>
     <row r="223" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C223" s="84"/>
+      <c r="C223" s="82"/>
     </row>
     <row r="224" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C224" s="84"/>
+      <c r="C224" s="82"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C225" s="84"/>
+      <c r="C225" s="82"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C226" s="84"/>
+      <c r="C226" s="82"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C227" s="84"/>
+      <c r="C227" s="82"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C228" s="84"/>
+      <c r="C228" s="82"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C229" s="84"/>
+      <c r="C229" s="82"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C230" s="84"/>
+      <c r="C230" s="82"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C231" s="84"/>
+      <c r="C231" s="82"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C232" s="84"/>
+      <c r="C232" s="82"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C233" s="84"/>
+      <c r="C233" s="82"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C234" s="84"/>
+      <c r="C234" s="82"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C235" s="84"/>
+      <c r="C235" s="82"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C236" s="84"/>
+      <c r="C236" s="82"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C237" s="84"/>
+      <c r="C237" s="82"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C238" s="84"/>
+      <c r="C238" s="82"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C239" s="84"/>
+      <c r="C239" s="82"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C240" s="84"/>
+      <c r="C240" s="82"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C241" s="84"/>
+      <c r="C241" s="82"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C242" s="84"/>
+      <c r="C242" s="82"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C243" s="84"/>
+      <c r="C243" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48275,88 +48312,88 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B3" s="37"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>778</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>779</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63" t="s">
         <v>780</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" s="37"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>783</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>784</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>785</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="62" t="s">
         <v>672</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="63" t="s">
         <v>781</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="63" t="s">
         <v>782</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>783</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="63" t="s">
         <v>784</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="63" t="s">
         <v>785</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="63" t="s">
         <v>786</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="63" t="s">
         <v>672</v>
       </c>
       <c r="R5" t="s">
@@ -48367,110 +48404,110 @@
       <c r="B6" s="37" t="s">
         <v>787</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="62">
         <v>33.36</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <v>17.63</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <v>10.51</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="62">
         <v>6.66</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="62">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="62">
         <v>6.1</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="62">
         <v>6.06</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="63">
         <v>24.04</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="63">
         <v>12.7</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="63">
         <v>7.57</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="63">
         <v>4.8</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="63">
         <v>3.23</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="63">
         <v>4.3899999999999997</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="63">
         <v>4.37</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B8" s="37"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>790</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="62" t="s">
         <v>791</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="62" t="s">
         <v>792</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="62" t="s">
         <v>793</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>794</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="62" t="s">
         <v>795</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="63" t="s">
         <v>796</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="63" t="s">
         <v>797</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="63" t="s">
         <v>798</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="63" t="s">
         <v>799</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="63" t="s">
         <v>800</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="63" t="s">
         <v>801</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="63" t="s">
         <v>802</v>
       </c>
       <c r="R8">
@@ -48482,91 +48519,91 @@
       <c r="B9" s="37" t="s">
         <v>803</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="62">
         <v>35.56</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <v>18.79</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <v>11.2</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="62">
         <v>7.1</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="62">
         <v>4.78</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="62">
         <v>6.5</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="62">
         <v>6.46</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="63">
         <v>25.62</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="63">
         <v>13.54</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="63">
         <v>8.07</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="63">
         <v>5.12</v>
       </c>
-      <c r="N9" s="65">
+      <c r="N9" s="63">
         <v>3.44</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="63">
         <v>4.68</v>
       </c>
-      <c r="P9" s="65">
+      <c r="P9" s="63">
         <v>4.66</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B10" s="37"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="62" t="s">
         <v>804</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="62" t="s">
         <v>805</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="62" t="s">
         <v>806</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="62" t="s">
         <v>807</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="62" t="s">
         <v>808</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="62" t="s">
         <v>810</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="63" t="s">
         <v>811</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="63" t="s">
         <v>812</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="63" t="s">
         <v>813</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="63" t="s">
         <v>814</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="63" t="s">
         <v>815</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="63" t="s">
         <v>816</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="63" t="s">
         <v>817</v>
       </c>
     </row>
@@ -48574,91 +48611,91 @@
       <c r="B11" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="62">
         <v>39.86</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>21.06</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="62">
         <v>12.55</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="62">
         <v>7.96</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="62">
         <v>5.35</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="62">
         <v>7.28</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="62">
         <v>7.24</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="63">
         <v>28.72</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="63">
         <v>15.17</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="63">
         <v>9.0399999999999991</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="63">
         <v>5.74</v>
       </c>
-      <c r="N11" s="65">
+      <c r="N11" s="63">
         <v>3.86</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="63">
         <v>5.25</v>
       </c>
-      <c r="P11" s="65">
+      <c r="P11" s="63">
         <v>5.22</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="37"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="62" t="s">
         <v>820</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="62" t="s">
         <v>821</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="62" t="s">
         <v>822</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="62" t="s">
         <v>823</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="62" t="s">
         <v>825</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="63" t="s">
         <v>828</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="63" t="s">
         <v>829</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="63" t="s">
         <v>830</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="63" t="s">
         <v>831</v>
       </c>
-      <c r="P12" s="65" t="s">
+      <c r="P12" s="63" t="s">
         <v>832</v>
       </c>
     </row>
@@ -48666,91 +48703,91 @@
       <c r="B13" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="62">
         <v>53.56</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="62">
         <v>28.3</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="62">
         <v>16.87</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="62">
         <v>10.7</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="62">
         <v>7.19</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="62">
         <v>9.7899999999999991</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="62">
         <v>9.73</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="63">
         <v>38.590000000000003</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="63">
         <v>20.39</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="63">
         <v>12.15</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="63">
         <v>7.71</v>
       </c>
-      <c r="N13" s="65">
+      <c r="N13" s="63">
         <v>5.18</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="63">
         <v>7.05</v>
       </c>
-      <c r="P13" s="65">
+      <c r="P13" s="63">
         <v>7.01</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="37"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="62" t="s">
         <v>834</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="62" t="s">
         <v>836</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="62" t="s">
         <v>837</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="62" t="s">
         <v>839</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="62" t="s">
         <v>840</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="63" t="s">
         <v>841</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="63" t="s">
         <v>842</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="63" t="s">
         <v>843</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="63" t="s">
         <v>844</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="63" t="s">
         <v>845</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="63" t="s">
         <v>846</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="63" t="s">
         <v>847</v>
       </c>
     </row>
@@ -48758,110 +48795,110 @@
       <c r="B15" s="37" t="s">
         <v>848</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="62">
         <v>10.86</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>7.11</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="62">
         <v>4.4800000000000004</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="62">
         <v>3.51</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="62">
         <v>3.57</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="62">
         <v>5.64</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="62">
         <v>2.52</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="63">
         <v>7.8</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="63">
         <v>5.1100000000000003</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="63">
         <v>3.22</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="63">
         <v>2.52</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="63">
         <v>2.56</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="63">
         <v>4.05</v>
       </c>
-      <c r="P16" s="65">
+      <c r="P16" s="63">
         <v>1.81</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" s="37"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="62" t="s">
         <v>850</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="62" t="s">
         <v>851</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="62" t="s">
         <v>852</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="62" t="s">
         <v>853</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="62" t="s">
         <v>854</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="62" t="s">
         <v>855</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="63" t="s">
         <v>856</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="63" t="s">
         <v>857</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="63" t="s">
         <v>858</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="63" t="s">
         <v>859</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="63" t="s">
         <v>860</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="63" t="s">
         <v>861</v>
       </c>
-      <c r="P17" s="65" t="s">
+      <c r="P17" s="63" t="s">
         <v>862</v>
       </c>
     </row>
@@ -48869,91 +48906,91 @@
       <c r="B18" s="37" t="s">
         <v>803</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="62">
         <v>7.88</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>5.15</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <v>3.25</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="62">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="62">
         <v>2.59</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="62">
         <v>4.09</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="62">
         <v>1.83</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="63">
         <v>5.66</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="63">
         <v>3.7</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="63">
         <v>2.33</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="63">
         <v>1.83</v>
       </c>
-      <c r="N18" s="65">
+      <c r="N18" s="63">
         <v>1.86</v>
       </c>
-      <c r="O18" s="65">
+      <c r="O18" s="63">
         <v>2.94</v>
       </c>
-      <c r="P18" s="65">
+      <c r="P18" s="63">
         <v>1.31</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19" s="37"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="62" t="s">
         <v>864</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="62" t="s">
         <v>865</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="62" t="s">
         <v>867</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="63" t="s">
         <v>870</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="63" t="s">
         <v>871</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="63" t="s">
         <v>872</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="63" t="s">
         <v>873</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="63" t="s">
         <v>874</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="63" t="s">
         <v>875</v>
       </c>
-      <c r="P19" s="65" t="s">
+      <c r="P19" s="63" t="s">
         <v>876</v>
       </c>
     </row>
@@ -48961,91 +48998,91 @@
       <c r="B20" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="62">
         <v>7.57</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="62">
         <v>4.96</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
         <v>3.12</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="62">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="62">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="62">
         <v>3.93</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="62">
         <v>1.76</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="63">
         <v>5.44</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="63">
         <v>3.56</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="63">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="63">
         <v>1.76</v>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="63">
         <v>1.79</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="63">
         <v>2.82</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P20" s="63">
         <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B21" s="37"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>877</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="62" t="s">
         <v>878</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="62" t="s">
         <v>879</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="62" t="s">
         <v>883</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="63" t="s">
         <v>884</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="63" t="s">
         <v>885</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="63" t="s">
         <v>886</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="63" t="s">
         <v>887</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="N21" s="63" t="s">
         <v>888</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="63" t="s">
         <v>889</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="63" t="s">
         <v>890</v>
       </c>
     </row>
@@ -49053,91 +49090,91 @@
       <c r="B22" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="62">
         <v>8.9600000000000009</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="62">
         <v>5.86</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <v>3.69</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="62">
         <v>2.9</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>2.94</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="62">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="62">
         <v>2.08</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="63">
         <v>6.43</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="63">
         <v>4.21</v>
       </c>
-      <c r="L22" s="65">
+      <c r="L22" s="63">
         <v>2.65</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="63">
         <v>2.08</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="63">
         <v>2.11</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="63">
         <v>3.34</v>
       </c>
-      <c r="P22" s="65">
+      <c r="P22" s="63">
         <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="37"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="62" t="s">
         <v>891</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="62" t="s">
         <v>892</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="62" t="s">
         <v>894</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="62" t="s">
         <v>895</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="62" t="s">
         <v>896</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="62" t="s">
         <v>897</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="63" t="s">
         <v>898</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="63" t="s">
         <v>899</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="63" t="s">
         <v>900</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="M23" s="63" t="s">
         <v>901</v>
       </c>
-      <c r="N23" s="65" t="s">
+      <c r="N23" s="63" t="s">
         <v>902</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="63" t="s">
         <v>903</v>
       </c>
-      <c r="P23" s="65" t="s">
+      <c r="P23" s="63" t="s">
         <v>904</v>
       </c>
     </row>
@@ -49145,108 +49182,108 @@
       <c r="B24" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B25" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="62">
         <v>5.83</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="62">
         <v>3.82</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="62" t="s">
         <v>908</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="62">
         <v>1.89</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="62">
         <v>1.91</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="62">
         <v>3.03</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="62">
         <v>1.35</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="63">
         <v>4.1900000000000004</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="63">
         <v>2.74</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="63">
         <v>1.73</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="63">
         <v>1.35</v>
       </c>
-      <c r="N25" s="65">
+      <c r="N25" s="63">
         <v>1.38</v>
       </c>
-      <c r="O25" s="65">
+      <c r="O25" s="63">
         <v>2.17</v>
       </c>
-      <c r="P25" s="65">
+      <c r="P25" s="63">
         <v>0.97</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B26" s="37"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>906</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="62" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62" t="s">
         <v>909</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="62" t="s">
         <v>910</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="62" t="s">
         <v>911</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="62" t="s">
         <v>912</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="63" t="s">
         <v>913</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="63" t="s">
         <v>914</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="63" t="s">
         <v>915</v>
       </c>
-      <c r="M26" s="65" t="s">
+      <c r="M26" s="63" t="s">
         <v>916</v>
       </c>
-      <c r="N26" s="65" t="s">
+      <c r="N26" s="63" t="s">
         <v>917</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="63" t="s">
         <v>918</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="63" t="s">
         <v>919</v>
       </c>
     </row>
@@ -49254,91 +49291,91 @@
       <c r="B27" s="37" t="s">
         <v>803</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="62">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="62">
         <v>2.77</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <v>1.74</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="62">
         <v>1.37</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="62">
         <v>1.39</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="62">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="62">
         <v>0.98</v>
       </c>
-      <c r="J27" s="65">
+      <c r="J27" s="63">
         <v>3.04</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="63">
         <v>1.99</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="63">
         <v>1.25</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="63">
         <v>0.98</v>
       </c>
-      <c r="N27" s="65">
+      <c r="N27" s="63">
         <v>1</v>
       </c>
-      <c r="O27" s="65">
+      <c r="O27" s="63">
         <v>1.58</v>
       </c>
-      <c r="P27" s="65">
+      <c r="P27" s="63">
         <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B28" s="37"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="62" t="s">
         <v>920</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="62" t="s">
         <v>921</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="62" t="s">
         <v>922</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="62" t="s">
         <v>924</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="62" t="s">
         <v>925</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="62" t="s">
         <v>926</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="63" t="s">
         <v>927</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="63" t="s">
         <v>928</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="63" t="s">
         <v>929</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="M28" s="63" t="s">
         <v>930</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="63" t="s">
         <v>931</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="63" t="s">
         <v>932</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="63" t="s">
         <v>933</v>
       </c>
     </row>
@@ -49346,91 +49383,91 @@
       <c r="B29" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="62">
         <v>4.07</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="62">
         <v>2.66</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="62">
         <v>1.68</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="62">
         <v>1.31</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="62">
         <v>1.33</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="62">
         <v>2.11</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="62">
         <v>0.94</v>
       </c>
-      <c r="J29" s="65">
+      <c r="J29" s="63">
         <v>2.92</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="63">
         <v>1.91</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="63">
         <v>1.2</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="63">
         <v>0.94</v>
       </c>
-      <c r="N29" s="65">
+      <c r="N29" s="63">
         <v>0.96</v>
       </c>
-      <c r="O29" s="65">
+      <c r="O29" s="63">
         <v>1.52</v>
       </c>
-      <c r="P29" s="65">
+      <c r="P29" s="63">
         <v>0.68</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B30" s="37"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>934</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>935</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="62" t="s">
         <v>936</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="62" t="s">
         <v>937</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="62" t="s">
         <v>938</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="62" t="s">
         <v>939</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="62" t="s">
         <v>940</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="J30" s="63" t="s">
         <v>941</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="63" t="s">
         <v>942</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="63" t="s">
         <v>943</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="M30" s="63" t="s">
         <v>944</v>
       </c>
-      <c r="N30" s="65" t="s">
+      <c r="N30" s="63" t="s">
         <v>945</v>
       </c>
-      <c r="O30" s="65" t="s">
+      <c r="O30" s="63" t="s">
         <v>946</v>
       </c>
-      <c r="P30" s="65" t="s">
+      <c r="P30" s="63" t="s">
         <v>947</v>
       </c>
     </row>
@@ -49438,97 +49475,97 @@
       <c r="B31" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="62">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="62">
         <v>3.15</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="62">
         <v>1.98</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="62">
         <v>1.55</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="62">
         <v>1.58</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="62">
         <v>2.5</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="62">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="63">
         <v>3.45</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="63">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="63">
         <v>1.42</v>
       </c>
-      <c r="M31" s="65">
+      <c r="M31" s="63">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N31" s="65">
+      <c r="N31" s="63">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O31" s="65">
+      <c r="O31" s="63">
         <v>1.79</v>
       </c>
-      <c r="P31" s="65">
+      <c r="P31" s="63">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B32" s="37"/>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="62" t="s">
         <v>948</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="62" t="s">
         <v>949</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="62" t="s">
         <v>928</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="62" t="s">
         <v>950</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="62" t="s">
         <v>951</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="62" t="s">
         <v>952</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="62" t="s">
         <v>953</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="63" t="s">
         <v>954</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="63" t="s">
         <v>955</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="63" t="s">
         <v>956</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="63" t="s">
         <v>957</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="63" t="s">
         <v>958</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="63" t="s">
         <v>959</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="63" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -49917,17 +49954,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -49938,19 +49975,19 @@
         <v>561</v>
       </c>
       <c r="D74" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E74" t="s">
         <v>1231</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>1232</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>1233</v>
       </c>
-      <c r="I74" t="s">
-        <v>1234</v>
-      </c>
       <c r="J74" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -50315,7 +50352,7 @@
     </row>
     <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="37" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C5" s="12"/>
       <c r="G5" s="4"/>
@@ -50384,7 +50421,7 @@
         <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -50401,7 +50438,7 @@
         <v>437</v>
       </c>
       <c r="H15" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
@@ -50418,7 +50455,7 @@
         <v>0.111</v>
       </c>
       <c r="H16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I16">
         <v>329000</v>
@@ -50439,7 +50476,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I17">
         <v>157000</v>
@@ -50447,7 +50484,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I18">
         <f>I17/I16</f>
@@ -50456,10 +50493,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I19">
         <v>122000</v>
@@ -50473,7 +50510,7 @@
         <v>0.754</v>
       </c>
       <c r="H20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I20">
         <f>I19/I17</f>
@@ -50493,34 +50530,34 @@
     </row>
     <row r="24" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>1170</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D25" s="37" t="s">
+      <c r="G25" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>1125</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.45">
@@ -50690,11 +50727,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="C34" s="89">
+      <c r="C34" s="88">
         <v>2015</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>
@@ -50723,10 +50760,10 @@
         <v>478</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J35" t="s">
         <v>478</v>
@@ -50735,10 +50772,10 @@
         <v>479</v>
       </c>
       <c r="L35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M35" t="s">
         <v>1133</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1134</v>
       </c>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -50969,11 +51006,11 @@
         <f>SUM(C36:C41)</f>
         <v>328035</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="59">
         <f>SUM(D36:D41)</f>
         <v>570765</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="60">
         <f t="shared" si="0"/>
         <v>0.57472865364905001</v>
       </c>
@@ -50981,7 +51018,7 @@
         <f>SUM(F36:F41)</f>
         <v>487583</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="61">
         <f t="shared" si="1"/>
         <v>0.67277776296548486</v>
       </c>
@@ -51001,14 +51038,14 @@
         <f t="shared" si="2"/>
         <v>0.73342180387315792</v>
       </c>
-      <c r="M42" s="62">
+      <c r="M42" s="60">
         <f>K42/I42</f>
         <v>0.65512458482178615</v>
       </c>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
-      <c r="Y42" s="60"/>
+      <c r="Y42" s="58"/>
     </row>
     <row r="43" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C43" s="4"/>
@@ -51017,7 +51054,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="37" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -51025,7 +51062,7 @@
     </row>
     <row r="44" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="37" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C44" s="40">
         <v>2013</v>
@@ -51034,13 +51071,13 @@
         <v>43.1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F44" s="37">
         <f>C20*M42</f>
         <v>0.49396393695562674</v>
       </c>
-      <c r="G44" s="60"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="4"/>
       <c r="I44" s="7"/>
       <c r="K44" s="4"/>
@@ -51063,7 +51100,7 @@
     </row>
     <row r="47" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="4"/>
@@ -51077,13 +51114,13 @@
     </row>
     <row r="49" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C49" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="37" t="s">
         <v>1091</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.45">
@@ -51496,7 +51533,7 @@
         <v>576</v>
       </c>
       <c r="J99" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
@@ -51625,17 +51662,17 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C107" t="s">
         <v>106</v>
@@ -51650,7 +51687,7 @@
         <v>576</v>
       </c>
       <c r="G107" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
@@ -51795,7 +51832,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.45">
@@ -51808,7 +51845,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C119">
         <v>53.5</v>
@@ -51841,7 +51878,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C122">
         <v>77</v>
@@ -51863,7 +51900,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C124">
         <v>85.1</v>
@@ -51874,23 +51911,23 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D127" t="s">
         <v>1113</v>
       </c>
-      <c r="D127" t="s">
-        <v>1114</v>
-      </c>
       <c r="E127" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C128">
         <v>78.900000000000006</v>
@@ -51904,7 +51941,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C129">
         <v>82.7</v>
@@ -51918,7 +51955,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C130">
         <v>72.599999999999994</v>
@@ -51932,24 +51969,24 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B133" s="37"/>
       <c r="C133" s="37" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D133" s="37" t="s">
         <v>1113</v>
       </c>
-      <c r="D133" s="37" t="s">
-        <v>1114</v>
-      </c>
       <c r="E133" s="37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B134" s="37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C134" s="37">
         <v>78.900000000000006</v>
@@ -51965,7 +52002,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B135" s="37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C135" s="37">
         <v>82.7</v>
@@ -51981,7 +52018,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B136" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C136" s="37">
         <v>72.599999999999994</v>
@@ -51997,22 +52034,22 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.45">
@@ -52020,13 +52057,13 @@
         <v>196</v>
       </c>
       <c r="C188" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D188" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E188" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="37"/>
@@ -53705,66 +53742,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="84"/>
-    <col min="3" max="3" width="9.1328125" style="84"/>
+    <col min="1" max="1" width="9.1328125" style="82"/>
+    <col min="3" max="3" width="9.1328125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="84" t="s">
-        <v>1351</v>
+      <c r="A1" s="82" t="s">
+        <v>1350</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1350</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C2" s="84" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="82" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="84" t="s">
+    <row r="4" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="82" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="84" t="s">
+    <row r="5" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="82" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="84" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C6" s="82" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="84" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="82" t="s">
         <v>1359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="84" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C8"/>
     </row>
@@ -53783,10 +53820,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C14" s="82" t="s">
         <v>1366</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>1367</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -53795,7 +53832,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -53808,7 +53845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -54697,7 +54734,7 @@
       <c r="D57" s="21">
         <v>2.2758E-2</v>
       </c>
-      <c r="E57" s="88">
+      <c r="E57" s="86">
         <f>1-(C57+D57)</f>
         <v>6.9999999999998952E-3</v>
       </c>
@@ -54746,7 +54783,7 @@
       <c r="D58" s="21">
         <v>1.6348000000000001E-2</v>
       </c>
-      <c r="E58" s="88">
+      <c r="E58" s="86">
         <f t="shared" ref="E58:E69" si="0">1-(C58+D58)</f>
         <v>5.2999999999999936E-2</v>
       </c>
@@ -54759,7 +54796,7 @@
       <c r="H58" s="21">
         <v>3.2374E-2</v>
       </c>
-      <c r="I58" s="84">
+      <c r="I58" s="82">
         <f t="shared" ref="I58:I69" si="1">SUM(F58:H58)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -54781,7 +54818,7 @@
       <c r="P58" s="21">
         <v>2.2178230000000001</v>
       </c>
-      <c r="Q58" s="85">
+      <c r="Q58" s="83">
         <v>10.749024</v>
       </c>
     </row>
@@ -54795,21 +54832,21 @@
       <c r="D59" s="21">
         <v>1.3612000000000001E-2</v>
       </c>
-      <c r="E59" s="88">
+      <c r="E59" s="86">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="F59" s="21">
         <v>0.82045599999999996</v>
       </c>
-      <c r="G59" s="84">
+      <c r="G59" s="82">
         <f t="shared" ref="G59:G62" si="2">1-(F59+H59)</f>
         <v>0.17419600000000002</v>
       </c>
       <c r="H59" s="21">
         <v>5.3480000000000003E-3</v>
       </c>
-      <c r="I59" s="84">
+      <c r="I59" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -54846,14 +54883,14 @@
       <c r="D60" s="21">
         <v>1.4187999999999999E-2</v>
       </c>
-      <c r="E60" s="88">
+      <c r="E60" s="86">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="F60" s="21">
         <v>0.723132</v>
       </c>
-      <c r="G60" s="84">
+      <c r="G60" s="82">
         <f t="shared" si="2"/>
         <v>0.27218200000000004</v>
       </c>
@@ -54861,7 +54898,7 @@
         <f>(H59+H61)/2</f>
         <v>4.6860000000000001E-3</v>
       </c>
-      <c r="I60" s="84">
+      <c r="I60" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -54883,7 +54920,7 @@
       <c r="P60" s="21">
         <v>2.1474769999999999</v>
       </c>
-      <c r="Q60" s="86">
+      <c r="Q60" s="84">
         <v>19</v>
       </c>
     </row>
@@ -54897,21 +54934,21 @@
       <c r="D61" s="21">
         <v>1.3899E-2</v>
       </c>
-      <c r="E61" s="88">
+      <c r="E61" s="86">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="F61" s="21">
         <v>0.75290500000000005</v>
       </c>
-      <c r="G61" s="84">
+      <c r="G61" s="82">
         <f t="shared" si="2"/>
         <v>0.24307099999999993</v>
       </c>
       <c r="H61" s="21">
         <v>4.0239999999999998E-3</v>
       </c>
-      <c r="I61" s="84">
+      <c r="I61" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -54933,7 +54970,7 @@
       <c r="P61" s="21">
         <v>2.1142069999999999</v>
       </c>
-      <c r="Q61" s="86">
+      <c r="Q61" s="84">
         <v>18</v>
       </c>
     </row>
@@ -54947,21 +54984,21 @@
       <c r="D62" s="37">
         <v>1.3899E-2</v>
       </c>
-      <c r="E62" s="88">
+      <c r="E62" s="86">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="F62" s="21">
         <v>0.85122299999999995</v>
       </c>
-      <c r="G62" s="84">
+      <c r="G62" s="82">
         <f t="shared" si="2"/>
         <v>0.12883500000000003</v>
       </c>
       <c r="H62" s="21">
         <v>1.9942000000000001E-2</v>
       </c>
-      <c r="I62" s="84">
+      <c r="I62" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -54983,7 +55020,7 @@
       <c r="P62" s="21">
         <v>2.033687</v>
       </c>
-      <c r="Q62" s="85">
+      <c r="Q62" s="83">
         <v>17.745961999999999</v>
       </c>
     </row>
@@ -54997,7 +55034,7 @@
       <c r="D63" s="37">
         <v>1.3899E-2</v>
       </c>
-      <c r="E63" s="88">
+      <c r="E63" s="86">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
@@ -55012,7 +55049,7 @@
         <f>(H62+H64)/2</f>
         <v>1.4025000000000001E-2</v>
       </c>
-      <c r="I63" s="84">
+      <c r="I63" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55034,7 +55071,7 @@
       <c r="P63" s="21">
         <v>2.0873439999999999</v>
       </c>
-      <c r="Q63" s="87">
+      <c r="Q63" s="85">
         <f>(Q62+Q64)/2</f>
         <v>11.372980999999999</v>
       </c>
@@ -55049,21 +55086,21 @@
       <c r="D64" s="37">
         <v>1.2999E-2</v>
       </c>
-      <c r="E64" s="88">
+      <c r="E64" s="86">
         <f t="shared" si="0"/>
         <v>9.000000000000119E-4</v>
       </c>
       <c r="F64" s="21">
         <v>0.88470700000000002</v>
       </c>
-      <c r="G64" s="84">
+      <c r="G64" s="82">
         <f t="shared" ref="G64:G69" si="3">1-(F64+H64)</f>
         <v>0.10718499999999997</v>
       </c>
       <c r="H64" s="21">
         <v>8.1080000000000006E-3</v>
       </c>
-      <c r="I64" s="84">
+      <c r="I64" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55099,21 +55136,21 @@
       <c r="D65" s="37">
         <v>1.3809E-2</v>
       </c>
-      <c r="E65" s="88">
+      <c r="E65" s="86">
         <f t="shared" si="0"/>
         <v>9.0000000000034497E-5</v>
       </c>
-      <c r="F65" s="84">
+      <c r="F65" s="82">
         <v>0.88470700000000002</v>
       </c>
-      <c r="G65" s="84">
+      <c r="G65" s="82">
         <f t="shared" si="3"/>
         <v>0.11018499999999998</v>
       </c>
       <c r="H65" s="21">
         <v>5.1079999999999997E-3</v>
       </c>
-      <c r="I65" s="84">
+      <c r="I65" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55146,24 +55183,24 @@
       <c r="C66" s="37">
         <v>0.98610100000000001</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="82">
         <v>1.3809E-2</v>
       </c>
-      <c r="E66" s="88">
+      <c r="E66" s="86">
         <f t="shared" si="0"/>
         <v>9.0000000000034497E-5</v>
       </c>
-      <c r="F66" s="84">
+      <c r="F66" s="82">
         <v>0.88470700000000002</v>
       </c>
-      <c r="G66" s="84">
+      <c r="G66" s="82">
         <f t="shared" si="3"/>
         <v>0.11018499999999998</v>
       </c>
-      <c r="H66" s="84">
+      <c r="H66" s="82">
         <v>5.1079999999999997E-3</v>
       </c>
-      <c r="I66" s="84">
+      <c r="I66" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55199,21 +55236,21 @@
       <c r="D67" s="37">
         <v>1.3899E-2</v>
       </c>
-      <c r="E67" s="88">
+      <c r="E67" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F67" s="84">
+      <c r="F67" s="82">
         <v>0.89570700000000003</v>
       </c>
-      <c r="G67" s="84">
+      <c r="G67" s="82">
         <f t="shared" si="3"/>
         <v>0.10318499999999997</v>
       </c>
-      <c r="H67" s="84">
+      <c r="H67" s="82">
         <v>1.108E-3</v>
       </c>
-      <c r="I67" s="84">
+      <c r="I67" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55249,21 +55286,21 @@
       <c r="D68" s="37">
         <v>1.3899E-2</v>
       </c>
-      <c r="E68" s="88">
+      <c r="E68" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F68" s="84">
+      <c r="F68" s="82">
         <v>0.89570700000000003</v>
       </c>
-      <c r="G68" s="84">
+      <c r="G68" s="82">
         <f t="shared" si="3"/>
         <v>0.10318499999999997</v>
       </c>
-      <c r="H68" s="84">
+      <c r="H68" s="82">
         <v>1.108E-3</v>
       </c>
-      <c r="I68" s="84">
+      <c r="I68" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55299,21 +55336,21 @@
       <c r="D69" s="37">
         <v>1.3899E-2</v>
       </c>
-      <c r="E69" s="88">
+      <c r="E69" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F69" s="84">
+      <c r="F69" s="82">
         <v>0.89570700000000003</v>
       </c>
-      <c r="G69" s="84">
+      <c r="G69" s="82">
         <f t="shared" si="3"/>
         <v>0.10318499999999997</v>
       </c>
-      <c r="H69" s="84">
+      <c r="H69" s="82">
         <v>1.108E-3</v>
       </c>
-      <c r="I69" s="84">
+      <c r="I69" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -55597,7 +55634,7 @@
       <c r="K75" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="L75" s="71">
+      <c r="L75" s="69">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M75" s="37">
@@ -55606,7 +55643,7 @@
       <c r="N75" s="37">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O75" s="71">
+      <c r="O75" s="69">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P75" s="37">
@@ -56523,7 +56560,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K91" s="20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.45">
@@ -56534,8 +56571,8 @@
         <v>235</v>
       </c>
       <c r="H92" s="41"/>
-      <c r="K92" s="71" t="s">
-        <v>1215</v>
+      <c r="K92" s="69" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.45">
@@ -56551,8 +56588,8 @@
       <c r="E93" t="s">
         <v>217</v>
       </c>
-      <c r="K93" s="86" t="s">
-        <v>1373</v>
+      <c r="K93" s="84" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.45">
@@ -56583,7 +56620,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.45">
@@ -56603,7 +56640,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -57413,16 +57450,16 @@
       <c r="O165" s="37"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A166" s="74" t="s">
+      <c r="A166" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="B166" s="74"/>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74" t="s">
+      <c r="B166" s="72"/>
+      <c r="C166" s="72"/>
+      <c r="D166" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E166" s="74"/>
-      <c r="F166" s="74"/>
+      <c r="E166" s="72"/>
+      <c r="F166" s="72"/>
       <c r="J166" s="37" t="s">
         <v>150</v>
       </c>
@@ -57435,18 +57472,18 @@
       <c r="O166" s="37"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A167" s="74"/>
-      <c r="B167" s="74"/>
-      <c r="C167" s="74" t="s">
+      <c r="A167" s="72"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="72" t="s">
         <v>599</v>
       </c>
-      <c r="D167" s="74" t="s">
+      <c r="D167" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="E167" s="74" t="s">
+      <c r="E167" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="F167" s="74" t="s">
+      <c r="F167" s="72" t="s">
         <v>492</v>
       </c>
       <c r="J167" s="37"/>
@@ -57465,20 +57502,20 @@
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A168" s="74" t="s">
+      <c r="A168" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="B168" s="74">
+      <c r="B168" s="72">
         <v>1</v>
       </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74">
+      <c r="C168" s="72"/>
+      <c r="D168" s="72">
         <v>0</v>
       </c>
-      <c r="E168" s="74">
+      <c r="E168" s="72">
         <v>0</v>
       </c>
-      <c r="F168" s="74">
+      <c r="F168" s="72">
         <v>0</v>
       </c>
       <c r="J168" s="37" t="s">
@@ -57497,20 +57534,20 @@
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A169" s="74" t="s">
+      <c r="A169" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="B169" s="74">
+      <c r="B169" s="72">
         <v>2</v>
       </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74">
+      <c r="C169" s="72"/>
+      <c r="D169" s="72">
         <v>0</v>
       </c>
-      <c r="E169" s="74">
+      <c r="E169" s="72">
         <v>0</v>
       </c>
-      <c r="F169" s="74">
+      <c r="F169" s="72">
         <v>0</v>
       </c>
       <c r="J169" s="35" t="s">
@@ -57529,22 +57566,22 @@
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A170" s="74" t="s">
+      <c r="A170" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="74">
+      <c r="B170" s="72">
         <v>3</v>
       </c>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74">
+      <c r="C170" s="72"/>
+      <c r="D170" s="72">
         <f>0.8*M170</f>
         <v>2.4960000000000004</v>
       </c>
-      <c r="E170" s="74">
+      <c r="E170" s="72">
         <f>0.8*N170</f>
         <v>1.4976000000000003</v>
       </c>
-      <c r="F170" s="74">
+      <c r="F170" s="72">
         <f>0.8*O170</f>
         <v>0.89856000000000003</v>
       </c>
@@ -57566,22 +57603,22 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A171" s="74" t="s">
+      <c r="A171" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="74">
+      <c r="B171" s="72">
         <v>4</v>
       </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74">
+      <c r="C171" s="72"/>
+      <c r="D171" s="72">
         <f t="shared" ref="D171:D183" si="4">0.8*M171</f>
         <v>12.48</v>
       </c>
-      <c r="E171" s="74">
+      <c r="E171" s="72">
         <f t="shared" ref="E171:E183" si="5">0.8*N171</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="F171" s="74">
+      <c r="F171" s="72">
         <f t="shared" ref="F171:F183" si="6">0.8*O171</f>
         <v>4.4927999999999999</v>
       </c>
@@ -57603,22 +57640,22 @@
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A172" s="74" t="s">
+      <c r="A172" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="B172" s="74">
+      <c r="B172" s="72">
         <v>5</v>
       </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74">
+      <c r="C172" s="72"/>
+      <c r="D172" s="72">
         <f t="shared" si="4"/>
         <v>49.92</v>
       </c>
-      <c r="E172" s="74">
+      <c r="E172" s="72">
         <f t="shared" si="5"/>
         <v>29.951999999999998</v>
       </c>
-      <c r="F172" s="74">
+      <c r="F172" s="72">
         <f t="shared" si="6"/>
         <v>17.9712</v>
       </c>
@@ -57642,22 +57679,22 @@
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A173" s="74" t="s">
+      <c r="A173" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B173" s="74">
+      <c r="B173" s="72">
         <v>6</v>
       </c>
-      <c r="C173" s="74"/>
-      <c r="D173" s="74">
+      <c r="C173" s="72"/>
+      <c r="D173" s="72">
         <f t="shared" si="4"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="E173" s="74">
+      <c r="E173" s="72">
         <f t="shared" si="5"/>
         <v>74.88</v>
       </c>
-      <c r="F173" s="74">
+      <c r="F173" s="72">
         <f t="shared" si="6"/>
         <v>44.927999999999997</v>
       </c>
@@ -57679,22 +57716,22 @@
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A174" s="74" t="s">
+      <c r="A174" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B174" s="74">
+      <c r="B174" s="72">
         <v>7</v>
       </c>
-      <c r="C174" s="74"/>
-      <c r="D174" s="74">
+      <c r="C174" s="72"/>
+      <c r="D174" s="72">
         <f t="shared" si="4"/>
         <v>88.24692632</v>
       </c>
-      <c r="E174" s="74">
+      <c r="E174" s="72">
         <f t="shared" si="5"/>
         <v>52.948155776</v>
       </c>
-      <c r="F174" s="74">
+      <c r="F174" s="72">
         <f t="shared" si="6"/>
         <v>31.768893464000001</v>
       </c>
@@ -57718,22 +57755,22 @@
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A175" s="74" t="s">
+      <c r="A175" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B175" s="74">
+      <c r="B175" s="72">
         <v>8</v>
       </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74">
+      <c r="C175" s="72"/>
+      <c r="D175" s="72">
         <f t="shared" si="4"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E175" s="74">
+      <c r="E175" s="72">
         <f t="shared" si="5"/>
         <v>37.44</v>
       </c>
-      <c r="F175" s="74">
+      <c r="F175" s="72">
         <f t="shared" si="6"/>
         <v>22.463999999999999</v>
       </c>
@@ -57757,22 +57794,22 @@
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A176" s="74" t="s">
+      <c r="A176" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="B176" s="74">
+      <c r="B176" s="72">
         <v>9</v>
       </c>
-      <c r="C176" s="74"/>
-      <c r="D176" s="74">
+      <c r="C176" s="72"/>
+      <c r="D176" s="72">
         <f t="shared" si="4"/>
         <v>44.123463143999999</v>
       </c>
-      <c r="E176" s="74">
+      <c r="E176" s="72">
         <f t="shared" si="5"/>
         <v>26.474077888</v>
       </c>
-      <c r="F176" s="74">
+      <c r="F176" s="72">
         <f t="shared" si="6"/>
         <v>15.884446736000001</v>
       </c>
@@ -57796,22 +57833,22 @@
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A177" s="74" t="s">
+      <c r="A177" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="B177" s="74">
+      <c r="B177" s="72">
         <v>10</v>
       </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74">
+      <c r="C177" s="72"/>
+      <c r="D177" s="72">
         <f t="shared" si="4"/>
         <v>31.200000000000003</v>
       </c>
-      <c r="E177" s="74">
+      <c r="E177" s="72">
         <f t="shared" si="5"/>
         <v>18.72</v>
       </c>
-      <c r="F177" s="74">
+      <c r="F177" s="72">
         <f t="shared" si="6"/>
         <v>11.231999999999999</v>
       </c>
@@ -57835,22 +57872,22 @@
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A178" s="74" t="s">
+      <c r="A178" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="B178" s="74">
+      <c r="B178" s="72">
         <v>11</v>
       </c>
-      <c r="C178" s="74"/>
-      <c r="D178" s="74">
+      <c r="C178" s="72"/>
+      <c r="D178" s="72">
         <f t="shared" si="4"/>
         <v>22.061731576</v>
       </c>
-      <c r="E178" s="74">
+      <c r="E178" s="72">
         <f t="shared" si="5"/>
         <v>13.237038944</v>
       </c>
-      <c r="F178" s="74">
+      <c r="F178" s="72">
         <f t="shared" si="6"/>
         <v>7.9422233664000004</v>
       </c>
@@ -57874,22 +57911,22 @@
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A179" s="74" t="s">
+      <c r="A179" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="B179" s="74">
+      <c r="B179" s="72">
         <v>12</v>
       </c>
-      <c r="C179" s="74"/>
-      <c r="D179" s="74">
+      <c r="C179" s="72"/>
+      <c r="D179" s="72">
         <f t="shared" si="4"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="E179" s="74">
+      <c r="E179" s="72">
         <f t="shared" si="5"/>
         <v>9.36</v>
       </c>
-      <c r="F179" s="74">
+      <c r="F179" s="72">
         <f t="shared" si="6"/>
         <v>5.6159999999999997</v>
       </c>
@@ -57913,22 +57950,22 @@
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A180" s="74" t="s">
+      <c r="A180" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="74">
+      <c r="B180" s="72">
         <v>13</v>
       </c>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74">
+      <c r="C180" s="72"/>
+      <c r="D180" s="72">
         <f t="shared" si="4"/>
         <v>11.030865784</v>
       </c>
-      <c r="E180" s="74">
+      <c r="E180" s="72">
         <f t="shared" si="5"/>
         <v>6.618519472</v>
       </c>
-      <c r="F180" s="74">
+      <c r="F180" s="72">
         <f t="shared" si="6"/>
         <v>3.9711116832000002</v>
       </c>
@@ -57952,22 +57989,22 @@
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A181" s="74" t="s">
+      <c r="A181" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="B181" s="74">
+      <c r="B181" s="72">
         <v>14</v>
       </c>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74">
+      <c r="C181" s="72"/>
+      <c r="D181" s="72">
         <f t="shared" si="4"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E181" s="74">
+      <c r="E181" s="72">
         <f t="shared" si="5"/>
         <v>4.68</v>
       </c>
-      <c r="F181" s="74">
+      <c r="F181" s="72">
         <f t="shared" si="6"/>
         <v>2.8079999999999998</v>
       </c>
@@ -57991,22 +58028,22 @@
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A182" s="74" t="s">
+      <c r="A182" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="B182" s="74">
+      <c r="B182" s="72">
         <v>15</v>
       </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="74">
+      <c r="C182" s="72"/>
+      <c r="D182" s="72">
         <f t="shared" si="4"/>
         <v>5.5154328935999999</v>
       </c>
-      <c r="E182" s="74">
+      <c r="E182" s="72">
         <f t="shared" si="5"/>
         <v>3.309259736</v>
       </c>
-      <c r="F182" s="74">
+      <c r="F182" s="72">
         <f t="shared" si="6"/>
         <v>1.9855558416000001</v>
       </c>
@@ -58030,22 +58067,22 @@
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A183" s="74" t="s">
+      <c r="A183" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="B183" s="74">
+      <c r="B183" s="72">
         <v>16</v>
       </c>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74">
+      <c r="C183" s="72"/>
+      <c r="D183" s="72">
         <f t="shared" si="4"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E183" s="74">
+      <c r="E183" s="72">
         <f t="shared" si="5"/>
         <v>2.34</v>
       </c>
-      <c r="F183" s="74">
+      <c r="F183" s="72">
         <f t="shared" si="6"/>
         <v>1.4039999999999999</v>
       </c>
@@ -58069,12 +58106,12 @@
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A184" s="74"/>
-      <c r="B184" s="74"/>
-      <c r="C184" s="74"/>
-      <c r="D184" s="74"/>
-      <c r="E184" s="74"/>
-      <c r="F184" s="74"/>
+      <c r="A184" s="72"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="72"/>
+      <c r="D184" s="72"/>
+      <c r="E184" s="72"/>
+      <c r="F184" s="72"/>
       <c r="J184" s="37"/>
       <c r="K184" s="37"/>
       <c r="L184" s="37"/>
@@ -58083,761 +58120,761 @@
       <c r="O184" s="37"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A185" s="74" t="s">
+      <c r="A185" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="B185" s="74"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="74"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72" t="s">
+      <c r="B185" s="72"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="K185" s="72"/>
-      <c r="L185" s="72"/>
-      <c r="M185" s="72"/>
-      <c r="N185" s="72"/>
-      <c r="O185" s="72"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="70"/>
+      <c r="M185" s="70"/>
+      <c r="N185" s="70"/>
+      <c r="O185" s="70"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A186" s="74" t="s">
+      <c r="A186" s="72" t="s">
         <v>605</v>
       </c>
-      <c r="B186" s="74"/>
-      <c r="C186" s="74"/>
-      <c r="D186" s="74" t="s">
+      <c r="B186" s="72"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="E186" s="74"/>
-      <c r="F186" s="74"/>
-      <c r="G186" s="72"/>
-      <c r="H186" s="72"/>
-      <c r="I186" s="72"/>
-      <c r="J186" s="72" t="s">
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70" t="s">
         <v>605</v>
       </c>
-      <c r="K186" s="72"/>
-      <c r="L186" s="72"/>
-      <c r="M186" s="72" t="s">
+      <c r="K186" s="70"/>
+      <c r="L186" s="70"/>
+      <c r="M186" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="N186" s="72"/>
-      <c r="O186" s="72"/>
+      <c r="N186" s="70"/>
+      <c r="O186" s="70"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A187" s="74"/>
-      <c r="B187" s="74"/>
-      <c r="C187" s="74" t="s">
+      <c r="A187" s="72"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="72" t="s">
         <v>599</v>
       </c>
-      <c r="D187" s="74" t="s">
+      <c r="D187" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="E187" s="74" t="s">
+      <c r="E187" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="F187" s="74" t="s">
+      <c r="F187" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="G187" s="72"/>
-      <c r="H187" s="72"/>
-      <c r="I187" s="72"/>
-      <c r="J187" s="72"/>
-      <c r="K187" s="72"/>
-      <c r="L187" s="72" t="s">
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70" t="s">
         <v>599</v>
       </c>
-      <c r="M187" s="72" t="s">
+      <c r="M187" s="70" t="s">
         <v>600</v>
       </c>
-      <c r="N187" s="72" t="s">
+      <c r="N187" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="O187" s="72" t="s">
+      <c r="O187" s="70" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A188" s="74" t="s">
+      <c r="A188" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="B188" s="74">
+      <c r="B188" s="72">
         <v>1</v>
       </c>
-      <c r="C188" s="74"/>
-      <c r="D188" s="75">
+      <c r="C188" s="72"/>
+      <c r="D188" s="73">
         <v>0</v>
       </c>
-      <c r="E188" s="75">
+      <c r="E188" s="73">
         <v>0</v>
       </c>
-      <c r="F188" s="75">
+      <c r="F188" s="73">
         <v>0</v>
       </c>
-      <c r="G188" s="72"/>
-      <c r="H188" s="72"/>
-      <c r="I188" s="72"/>
-      <c r="J188" s="72" t="s">
+      <c r="G188" s="70"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="70"/>
+      <c r="J188" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="K188" s="72"/>
-      <c r="L188" s="72"/>
-      <c r="M188" s="72">
+      <c r="K188" s="70"/>
+      <c r="L188" s="70"/>
+      <c r="M188" s="70">
         <v>0</v>
       </c>
-      <c r="N188" s="72">
+      <c r="N188" s="70">
         <v>0</v>
       </c>
-      <c r="O188" s="72">
+      <c r="O188" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A189" s="74" t="s">
+      <c r="A189" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="B189" s="74">
+      <c r="B189" s="72">
         <v>2</v>
       </c>
-      <c r="C189" s="74"/>
-      <c r="D189" s="75">
+      <c r="C189" s="72"/>
+      <c r="D189" s="73">
         <v>0</v>
       </c>
-      <c r="E189" s="75">
+      <c r="E189" s="73">
         <v>0</v>
       </c>
-      <c r="F189" s="75">
+      <c r="F189" s="73">
         <v>0</v>
       </c>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
-      <c r="I189" s="72"/>
-      <c r="J189" s="73" t="s">
+      <c r="G189" s="70"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="70"/>
+      <c r="J189" s="71" t="s">
         <v>459</v>
       </c>
-      <c r="K189" s="72"/>
-      <c r="L189" s="72"/>
-      <c r="M189" s="72">
+      <c r="K189" s="70"/>
+      <c r="L189" s="70"/>
+      <c r="M189" s="70">
         <v>0</v>
       </c>
-      <c r="N189" s="72">
+      <c r="N189" s="70">
         <v>0</v>
       </c>
-      <c r="O189" s="72">
+      <c r="O189" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A190" s="74" t="s">
+      <c r="A190" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="B190" s="74">
+      <c r="B190" s="72">
         <v>3</v>
       </c>
-      <c r="C190" s="74">
+      <c r="C190" s="72">
         <v>0.05</v>
       </c>
-      <c r="D190" s="75">
+      <c r="D190" s="73">
         <f>0.8*M190</f>
         <v>6.24</v>
       </c>
-      <c r="E190" s="75">
+      <c r="E190" s="73">
         <f>0.8*N190</f>
         <v>3.7439999999999998</v>
       </c>
-      <c r="F190" s="75">
+      <c r="F190" s="73">
         <f>0.8*O190</f>
         <v>2.2464</v>
       </c>
-      <c r="G190" s="72"/>
-      <c r="H190" s="72"/>
-      <c r="I190" s="72"/>
-      <c r="J190" s="73" t="s">
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="K190" s="72"/>
-      <c r="L190" s="72">
+      <c r="K190" s="70"/>
+      <c r="L190" s="70">
         <v>0.05</v>
       </c>
-      <c r="M190" s="72">
+      <c r="M190" s="70">
         <v>7.8</v>
       </c>
-      <c r="N190" s="72">
+      <c r="N190" s="70">
         <v>4.68</v>
       </c>
-      <c r="O190" s="72">
+      <c r="O190" s="70">
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A191" s="74" t="s">
+      <c r="A191" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="B191" s="74">
+      <c r="B191" s="72">
         <v>4</v>
       </c>
-      <c r="C191" s="74">
+      <c r="C191" s="72">
         <v>0.1</v>
       </c>
-      <c r="D191" s="75">
+      <c r="D191" s="73">
         <f t="shared" ref="D191:D203" si="7">0.8*M191</f>
         <v>12.48</v>
       </c>
-      <c r="E191" s="75">
+      <c r="E191" s="73">
         <f t="shared" ref="E191:E203" si="8">0.8*N191</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="F191" s="75">
+      <c r="F191" s="73">
         <f t="shared" ref="F191:F203" si="9">0.8*O191</f>
         <v>4.4927999999999999</v>
       </c>
-      <c r="G191" s="72"/>
-      <c r="H191" s="72"/>
-      <c r="I191" s="72"/>
-      <c r="J191" s="72" t="s">
+      <c r="G191" s="70"/>
+      <c r="H191" s="70"/>
+      <c r="I191" s="70"/>
+      <c r="J191" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="K191" s="72"/>
-      <c r="L191" s="72">
+      <c r="K191" s="70"/>
+      <c r="L191" s="70">
         <v>0.1</v>
       </c>
-      <c r="M191" s="72">
+      <c r="M191" s="70">
         <v>15.6</v>
       </c>
-      <c r="N191" s="72">
+      <c r="N191" s="70">
         <v>9.36</v>
       </c>
-      <c r="O191" s="72">
+      <c r="O191" s="70">
         <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A192" s="74" t="s">
+      <c r="A192" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="B192" s="74">
+      <c r="B192" s="72">
         <v>5</v>
       </c>
-      <c r="C192" s="74">
+      <c r="C192" s="72">
         <v>0.4</v>
       </c>
-      <c r="D192" s="75">
+      <c r="D192" s="73">
         <f t="shared" si="7"/>
         <v>49.92</v>
       </c>
-      <c r="E192" s="75">
+      <c r="E192" s="73">
         <f t="shared" si="8"/>
         <v>29.951999999999998</v>
       </c>
-      <c r="F192" s="75">
+      <c r="F192" s="73">
         <f t="shared" si="9"/>
         <v>17.9712</v>
       </c>
-      <c r="G192" s="72"/>
-      <c r="H192" s="72"/>
-      <c r="I192" s="72"/>
-      <c r="J192" s="72" t="s">
+      <c r="G192" s="70"/>
+      <c r="H192" s="70"/>
+      <c r="I192" s="70"/>
+      <c r="J192" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="K192" s="72">
+      <c r="K192" s="70">
         <v>1</v>
       </c>
-      <c r="L192" s="72">
+      <c r="L192" s="70">
         <v>0.4</v>
       </c>
-      <c r="M192" s="72">
+      <c r="M192" s="70">
         <v>62.4</v>
       </c>
-      <c r="N192" s="72">
+      <c r="N192" s="70">
         <v>37.44</v>
       </c>
-      <c r="O192" s="72">
+      <c r="O192" s="70">
         <v>22.463999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A193" s="74" t="s">
+      <c r="A193" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B193" s="74">
+      <c r="B193" s="72">
         <v>6</v>
       </c>
-      <c r="C193" s="74"/>
-      <c r="D193" s="75">
+      <c r="C193" s="72"/>
+      <c r="D193" s="73">
         <f t="shared" si="7"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="E193" s="75">
+      <c r="E193" s="73">
         <f t="shared" si="8"/>
         <v>74.88</v>
       </c>
-      <c r="F193" s="75">
+      <c r="F193" s="73">
         <f t="shared" si="9"/>
         <v>44.927999999999997</v>
       </c>
-      <c r="G193" s="72"/>
-      <c r="H193" s="72"/>
-      <c r="I193" s="72"/>
-      <c r="J193" s="72" t="s">
+      <c r="G193" s="70"/>
+      <c r="H193" s="70"/>
+      <c r="I193" s="70"/>
+      <c r="J193" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="K193" s="72">
+      <c r="K193" s="70">
         <v>5</v>
       </c>
-      <c r="L193" s="72"/>
-      <c r="M193" s="72">
+      <c r="L193" s="70"/>
+      <c r="M193" s="70">
         <v>156</v>
       </c>
-      <c r="N193" s="72">
+      <c r="N193" s="70">
         <v>93.6</v>
       </c>
-      <c r="O193" s="72">
+      <c r="O193" s="70">
         <v>56.16</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A194" s="74" t="s">
+      <c r="A194" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B194" s="74">
+      <c r="B194" s="72">
         <v>7</v>
       </c>
-      <c r="C194" s="74">
+      <c r="C194" s="72">
         <v>0.70710678100000002</v>
       </c>
-      <c r="D194" s="75">
+      <c r="D194" s="73">
         <f t="shared" si="7"/>
         <v>88.24692632</v>
       </c>
-      <c r="E194" s="75">
+      <c r="E194" s="73">
         <f t="shared" si="8"/>
         <v>52.948155776</v>
       </c>
-      <c r="F194" s="75">
+      <c r="F194" s="73">
         <f t="shared" si="9"/>
         <v>31.768893464000001</v>
       </c>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72" t="s">
+      <c r="G194" s="70"/>
+      <c r="H194" s="70" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I194" s="70"/>
+      <c r="J194" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="K194" s="72">
+      <c r="K194" s="70">
         <v>10</v>
       </c>
-      <c r="L194" s="72">
+      <c r="L194" s="70">
         <v>0.70710678100000002</v>
       </c>
-      <c r="M194" s="72">
+      <c r="M194" s="70">
         <v>110.3086579</v>
       </c>
-      <c r="N194" s="72">
+      <c r="N194" s="70">
         <v>66.185194719999998</v>
       </c>
-      <c r="O194" s="72">
+      <c r="O194" s="70">
         <v>39.711116830000002</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A195" s="74" t="s">
+      <c r="A195" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="B195" s="74">
+      <c r="B195" s="72">
         <v>8</v>
       </c>
-      <c r="C195" s="74">
+      <c r="C195" s="72">
         <v>0.5</v>
       </c>
-      <c r="D195" s="75">
+      <c r="D195" s="73">
         <f t="shared" si="7"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E195" s="75">
+      <c r="E195" s="73">
         <f t="shared" si="8"/>
         <v>37.44</v>
       </c>
-      <c r="F195" s="75">
+      <c r="F195" s="73">
         <f t="shared" si="9"/>
         <v>22.463999999999999</v>
       </c>
-      <c r="G195" s="72"/>
-      <c r="H195" s="72"/>
-      <c r="I195" s="72"/>
-      <c r="J195" s="72" t="s">
+      <c r="G195" s="70"/>
+      <c r="H195" s="70"/>
+      <c r="I195" s="70"/>
+      <c r="J195" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="K195" s="72">
+      <c r="K195" s="70">
         <v>15</v>
       </c>
-      <c r="L195" s="72">
+      <c r="L195" s="70">
         <v>0.5</v>
       </c>
-      <c r="M195" s="72">
+      <c r="M195" s="70">
         <v>78</v>
       </c>
-      <c r="N195" s="72">
+      <c r="N195" s="70">
         <v>46.8</v>
       </c>
-      <c r="O195" s="72">
+      <c r="O195" s="70">
         <v>28.08</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A196" s="74" t="s">
+      <c r="A196" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="B196" s="74">
+      <c r="B196" s="72">
         <v>9</v>
       </c>
-      <c r="C196" s="74">
+      <c r="C196" s="72">
         <v>0.35355339099999999</v>
       </c>
-      <c r="D196" s="75">
+      <c r="D196" s="73">
         <f t="shared" si="7"/>
         <v>44.123463143999999</v>
       </c>
-      <c r="E196" s="75">
+      <c r="E196" s="73">
         <f t="shared" si="8"/>
         <v>26.474077888</v>
       </c>
-      <c r="F196" s="75">
+      <c r="F196" s="73">
         <f t="shared" si="9"/>
         <v>15.884446736000001</v>
       </c>
-      <c r="G196" s="72"/>
-      <c r="H196" s="72"/>
-      <c r="I196" s="72"/>
-      <c r="J196" s="72" t="s">
+      <c r="G196" s="70"/>
+      <c r="H196" s="70"/>
+      <c r="I196" s="70"/>
+      <c r="J196" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="K196" s="72">
+      <c r="K196" s="70">
         <v>20</v>
       </c>
-      <c r="L196" s="72">
+      <c r="L196" s="70">
         <v>0.35355339099999999</v>
       </c>
-      <c r="M196" s="72">
+      <c r="M196" s="70">
         <v>55.154328929999998</v>
       </c>
-      <c r="N196" s="72">
+      <c r="N196" s="70">
         <v>33.092597359999999</v>
       </c>
-      <c r="O196" s="72">
+      <c r="O196" s="70">
         <v>19.855558420000001</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A197" s="74" t="s">
+      <c r="A197" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="B197" s="74">
+      <c r="B197" s="72">
         <v>10</v>
       </c>
-      <c r="C197" s="74">
+      <c r="C197" s="72">
         <v>0.25</v>
       </c>
-      <c r="D197" s="75">
+      <c r="D197" s="73">
         <f t="shared" si="7"/>
         <v>31.200000000000003</v>
       </c>
-      <c r="E197" s="75">
+      <c r="E197" s="73">
         <f t="shared" si="8"/>
         <v>18.72</v>
       </c>
-      <c r="F197" s="75">
+      <c r="F197" s="73">
         <f t="shared" si="9"/>
         <v>11.231999999999999</v>
       </c>
-      <c r="G197" s="72"/>
-      <c r="H197" s="72"/>
-      <c r="I197" s="72"/>
-      <c r="J197" s="72" t="s">
+      <c r="G197" s="70"/>
+      <c r="H197" s="70"/>
+      <c r="I197" s="70"/>
+      <c r="J197" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="K197" s="72">
+      <c r="K197" s="70">
         <v>25</v>
       </c>
-      <c r="L197" s="72">
+      <c r="L197" s="70">
         <v>0.25</v>
       </c>
-      <c r="M197" s="72">
+      <c r="M197" s="70">
         <v>39</v>
       </c>
-      <c r="N197" s="72">
+      <c r="N197" s="70">
         <v>23.4</v>
       </c>
-      <c r="O197" s="72">
+      <c r="O197" s="70">
         <v>14.04</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A198" s="74" t="s">
+      <c r="A198" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="B198" s="74">
+      <c r="B198" s="72">
         <v>11</v>
       </c>
-      <c r="C198" s="74">
+      <c r="C198" s="72">
         <v>0.17677669500000001</v>
       </c>
-      <c r="D198" s="75">
+      <c r="D198" s="73">
         <f t="shared" si="7"/>
         <v>22.061731576</v>
       </c>
-      <c r="E198" s="75">
+      <c r="E198" s="73">
         <f t="shared" si="8"/>
         <v>13.237038944</v>
       </c>
-      <c r="F198" s="75">
+      <c r="F198" s="73">
         <f t="shared" si="9"/>
         <v>7.9422233664000004</v>
       </c>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72" t="s">
+      <c r="G198" s="70"/>
+      <c r="H198" s="70"/>
+      <c r="I198" s="70"/>
+      <c r="J198" s="70" t="s">
         <v>603</v>
       </c>
-      <c r="K198" s="72">
+      <c r="K198" s="70">
         <v>30</v>
       </c>
-      <c r="L198" s="72">
+      <c r="L198" s="70">
         <v>0.17677669500000001</v>
       </c>
-      <c r="M198" s="72">
+      <c r="M198" s="70">
         <v>27.57716447</v>
       </c>
-      <c r="N198" s="72">
+      <c r="N198" s="70">
         <v>16.54629868</v>
       </c>
-      <c r="O198" s="72">
+      <c r="O198" s="70">
         <v>9.9277792080000005</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A199" s="74" t="s">
+      <c r="A199" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="B199" s="74">
+      <c r="B199" s="72">
         <v>12</v>
       </c>
-      <c r="C199" s="74">
+      <c r="C199" s="72">
         <v>0.125</v>
       </c>
-      <c r="D199" s="75">
+      <c r="D199" s="73">
         <f t="shared" si="7"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="E199" s="75">
+      <c r="E199" s="73">
         <f t="shared" si="8"/>
         <v>9.36</v>
       </c>
-      <c r="F199" s="75">
+      <c r="F199" s="73">
         <f t="shared" si="9"/>
         <v>5.6159999999999997</v>
       </c>
-      <c r="G199" s="72"/>
-      <c r="H199" s="72"/>
-      <c r="I199" s="72"/>
-      <c r="J199" s="72" t="s">
+      <c r="G199" s="70"/>
+      <c r="H199" s="70"/>
+      <c r="I199" s="70"/>
+      <c r="J199" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="K199" s="72">
+      <c r="K199" s="70">
         <v>35</v>
       </c>
-      <c r="L199" s="72">
+      <c r="L199" s="70">
         <v>0.125</v>
       </c>
-      <c r="M199" s="72">
+      <c r="M199" s="70">
         <v>19.5</v>
       </c>
-      <c r="N199" s="72">
+      <c r="N199" s="70">
         <v>11.7</v>
       </c>
-      <c r="O199" s="72">
+      <c r="O199" s="70">
         <v>7.02</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A200" s="74" t="s">
+      <c r="A200" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="B200" s="74">
+      <c r="B200" s="72">
         <v>13</v>
       </c>
-      <c r="C200" s="74">
+      <c r="C200" s="72">
         <v>8.8388348000000005E-2</v>
       </c>
-      <c r="D200" s="75">
+      <c r="D200" s="73">
         <f t="shared" si="7"/>
         <v>11.030865784</v>
       </c>
-      <c r="E200" s="75">
+      <c r="E200" s="73">
         <f t="shared" si="8"/>
         <v>6.618519472</v>
       </c>
-      <c r="F200" s="75">
+      <c r="F200" s="73">
         <f t="shared" si="9"/>
         <v>3.9711116832000002</v>
       </c>
-      <c r="G200" s="72"/>
-      <c r="H200" s="72"/>
-      <c r="I200" s="72"/>
-      <c r="J200" s="72" t="s">
+      <c r="G200" s="70"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="70"/>
+      <c r="J200" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="K200" s="72">
+      <c r="K200" s="70">
         <v>40</v>
       </c>
-      <c r="L200" s="72">
+      <c r="L200" s="70">
         <v>8.8388348000000005E-2</v>
       </c>
-      <c r="M200" s="72">
+      <c r="M200" s="70">
         <v>13.788582229999999</v>
       </c>
-      <c r="N200" s="72">
+      <c r="N200" s="70">
         <v>8.2731493399999998</v>
       </c>
-      <c r="O200" s="72">
+      <c r="O200" s="70">
         <v>4.9638896040000002</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A201" s="74" t="s">
+      <c r="A201" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="B201" s="74">
+      <c r="B201" s="72">
         <v>14</v>
       </c>
-      <c r="C201" s="74">
+      <c r="C201" s="72">
         <v>6.25E-2</v>
       </c>
-      <c r="D201" s="75">
+      <c r="D201" s="73">
         <f t="shared" si="7"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E201" s="75">
+      <c r="E201" s="73">
         <f t="shared" si="8"/>
         <v>4.68</v>
       </c>
-      <c r="F201" s="75">
+      <c r="F201" s="73">
         <f t="shared" si="9"/>
         <v>2.8079999999999998</v>
       </c>
-      <c r="G201" s="72"/>
-      <c r="H201" s="72"/>
-      <c r="I201" s="72"/>
-      <c r="J201" s="72" t="s">
+      <c r="G201" s="70"/>
+      <c r="H201" s="70"/>
+      <c r="I201" s="70"/>
+      <c r="J201" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="K201" s="72">
+      <c r="K201" s="70">
         <v>45</v>
       </c>
-      <c r="L201" s="72">
+      <c r="L201" s="70">
         <v>6.25E-2</v>
       </c>
-      <c r="M201" s="72">
+      <c r="M201" s="70">
         <v>9.75</v>
       </c>
-      <c r="N201" s="72">
+      <c r="N201" s="70">
         <v>5.85</v>
       </c>
-      <c r="O201" s="72">
+      <c r="O201" s="70">
         <v>3.51</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A202" s="74" t="s">
+      <c r="A202" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="B202" s="74">
+      <c r="B202" s="72">
         <v>15</v>
       </c>
-      <c r="C202" s="74">
+      <c r="C202" s="72">
         <v>4.4194174000000003E-2</v>
       </c>
-      <c r="D202" s="75">
+      <c r="D202" s="73">
         <f t="shared" si="7"/>
         <v>5.5154328935999999</v>
       </c>
-      <c r="E202" s="75">
+      <c r="E202" s="73">
         <f t="shared" si="8"/>
         <v>3.309259736</v>
       </c>
-      <c r="F202" s="75">
+      <c r="F202" s="73">
         <f t="shared" si="9"/>
         <v>1.9855558416000001</v>
       </c>
-      <c r="G202" s="72"/>
-      <c r="H202" s="72"/>
-      <c r="I202" s="72"/>
-      <c r="J202" s="72" t="s">
+      <c r="G202" s="70"/>
+      <c r="H202" s="70"/>
+      <c r="I202" s="70"/>
+      <c r="J202" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="K202" s="72">
+      <c r="K202" s="70">
         <v>50</v>
       </c>
-      <c r="L202" s="72">
+      <c r="L202" s="70">
         <v>4.4194174000000003E-2</v>
       </c>
-      <c r="M202" s="72">
+      <c r="M202" s="70">
         <v>6.8942911169999999</v>
       </c>
-      <c r="N202" s="72">
+      <c r="N202" s="70">
         <v>4.1365746699999999</v>
       </c>
-      <c r="O202" s="72">
+      <c r="O202" s="70">
         <v>2.4819448020000001</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A203" s="74" t="s">
+      <c r="A203" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="B203" s="74">
+      <c r="B203" s="72">
         <v>16</v>
       </c>
-      <c r="C203" s="74">
+      <c r="C203" s="72">
         <v>3.125E-2</v>
       </c>
-      <c r="D203" s="75">
+      <c r="D203" s="73">
         <f t="shared" si="7"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E203" s="75">
+      <c r="E203" s="73">
         <f t="shared" si="8"/>
         <v>2.34</v>
       </c>
-      <c r="F203" s="75">
+      <c r="F203" s="73">
         <f t="shared" si="9"/>
         <v>1.4039999999999999</v>
       </c>
-      <c r="G203" s="72"/>
-      <c r="H203" s="72"/>
-      <c r="I203" s="72"/>
-      <c r="J203" s="72" t="s">
+      <c r="G203" s="70"/>
+      <c r="H203" s="70"/>
+      <c r="I203" s="70"/>
+      <c r="J203" s="70" t="s">
         <v>464</v>
       </c>
-      <c r="K203" s="72">
+      <c r="K203" s="70">
         <v>55</v>
       </c>
-      <c r="L203" s="72">
+      <c r="L203" s="70">
         <v>3.125E-2</v>
       </c>
-      <c r="M203" s="72">
+      <c r="M203" s="70">
         <v>4.875</v>
       </c>
-      <c r="N203" s="72">
+      <c r="N203" s="70">
         <v>2.9249999999999998</v>
       </c>
-      <c r="O203" s="72">
+      <c r="O203" s="70">
         <v>1.7549999999999999</v>
       </c>
     </row>
@@ -59023,28 +59060,28 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B254" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C257" t="s">
         <v>1363</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>1364</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
@@ -59109,10 +59146,10 @@
         <v>158</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="O2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -59126,7 +59163,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G3" t="s">
         <v>575</v>
@@ -59356,7 +59393,7 @@
         <v>59.412199999999999</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K9" s="7">
         <v>39.2258</v>
@@ -59411,15 +59448,15 @@
     <row r="12" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="37" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.45">
@@ -59448,7 +59485,7 @@
         <v>576</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.45">
@@ -59612,7 +59649,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H21" s="7">
         <v>39.386299999999999</v>
@@ -59645,7 +59682,7 @@
     <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -59673,7 +59710,7 @@
         <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H27" t="s">
         <v>575</v>
@@ -59692,35 +59729,35 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="79">
         <v>48.2</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="79">
         <v>66.3</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H28" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J28" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="K28" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L28" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -59734,48 +59771,48 @@
         <v>91.2</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F30" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -59783,25 +59820,25 @@
         <v>418</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -59812,25 +59849,25 @@
         <v>2012</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -59868,7 +59905,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -59882,7 +59919,7 @@
         <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -60117,7 +60154,7 @@
         <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K45" s="7">
         <v>60.636200000000002</v>
@@ -60174,17 +60211,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="37" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -60194,12 +60231,12 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C57" s="37" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>575</v>
@@ -60266,27 +60303,27 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C64" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D64" t="s">
         <v>1115</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>1116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1117</v>
       </c>
       <c r="F64" t="s">
         <v>420</v>
       </c>
       <c r="G64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.45">
@@ -63657,7 +63694,7 @@
         <v>456</v>
       </c>
       <c r="J103" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.45">
@@ -64287,7 +64324,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K127" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.45">
@@ -64298,7 +64335,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K128" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="129" spans="6:11" x14ac:dyDescent="0.45">
@@ -64309,7 +64346,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K129" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="130" spans="6:11" x14ac:dyDescent="0.45">
@@ -64323,7 +64360,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K130" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="131" spans="6:11" x14ac:dyDescent="0.45">
@@ -64337,7 +64374,7 @@
         <v>7.7850000000000001</v>
       </c>
       <c r="K131" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="132" spans="6:11" x14ac:dyDescent="0.45">
@@ -64351,7 +64388,7 @@
         <v>8.0650000000000013</v>
       </c>
       <c r="K132" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="133" spans="6:11" x14ac:dyDescent="0.45">
@@ -64365,7 +64402,7 @@
         <v>8.1100000000000012</v>
       </c>
       <c r="K133" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="134" spans="6:11" x14ac:dyDescent="0.45">
@@ -64379,7 +64416,7 @@
         <v>7.99</v>
       </c>
       <c r="K134" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="135" spans="6:11" x14ac:dyDescent="0.45">
@@ -64393,7 +64430,7 @@
         <v>7.64</v>
       </c>
       <c r="K135" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="136" spans="6:11" x14ac:dyDescent="0.45">
@@ -64407,7 +64444,7 @@
         <v>7.2160000000000002</v>
       </c>
       <c r="K136" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="137" spans="6:11" x14ac:dyDescent="0.45">
@@ -65907,25 +65944,25 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D71" t="s">
         <v>1307</v>
       </c>
-      <c r="D71" t="s">
-        <v>1308</v>
-      </c>
       <c r="E71" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F71" t="s">
         <v>246</v>
       </c>
       <c r="G71" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H71" t="s">
         <v>1309</v>
       </c>
-      <c r="H71" t="s">
-        <v>1310</v>
-      </c>
       <c r="I71" s="37" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J71" s="37" t="s">
         <v>246</v>
@@ -66659,10 +66696,10 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.45">
       <c r="U91" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AF91" t="s">
         <v>1226</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.45">
@@ -66670,16 +66707,16 @@
         <v>1070</v>
       </c>
       <c r="R92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="U92" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="X92">
         <v>0.4</v>
@@ -66691,23 +66728,23 @@
         <v>0.25</v>
       </c>
       <c r="AA92" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AB92">
         <v>0.15</v>
       </c>
       <c r="AC92" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AD92">
         <v>0.15</v>
       </c>
       <c r="AF92" s="37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AG92" s="37"/>
       <c r="AH92" s="37" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AI92" s="37"/>
       <c r="AJ92" s="37">
@@ -66715,11 +66752,11 @@
       </c>
       <c r="AK92" s="37"/>
       <c r="AL92" s="37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AM92" s="37"/>
       <c r="AN92" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AO92" s="37"/>
       <c r="AP92" s="37"/>
@@ -66733,47 +66770,47 @@
       <c r="AX92" s="37"/>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="62" t="s">
         <v>1039</v>
       </c>
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="64" t="s">
+      <c r="D93" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64" t="s">
+      <c r="E93" s="62"/>
+      <c r="F93" s="62" t="s">
         <v>1073</v>
       </c>
-      <c r="G93" s="64" t="s">
+      <c r="G93" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="H93" s="64" t="s">
+      <c r="H93" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64">
+      <c r="I93" s="62"/>
+      <c r="J93" s="62">
         <v>2000</v>
       </c>
-      <c r="K93" s="64" t="s">
+      <c r="K93" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64">
+      <c r="M93" s="62"/>
+      <c r="N93" s="62">
         <v>2020</v>
       </c>
-      <c r="O93" s="64" t="s">
+      <c r="O93" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="P93" s="64" t="s">
+      <c r="P93" s="62" t="s">
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S93" s="37">
         <v>1.5</v>
@@ -66849,49 +66886,49 @@
       <c r="AX93" s="37"/>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="62">
         <f>E114</f>
         <v>0.103242926</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="62">
         <f>E118</f>
         <v>8.7651773500000002E-2</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64">
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62">
         <f>J114</f>
         <v>4.7225124899999998E-2</v>
       </c>
-      <c r="H94" s="64">
+      <c r="H94" s="62">
         <f>J118</f>
         <v>3.9540063350000001E-2</v>
       </c>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64">
+      <c r="I94" s="62"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="62">
         <f>O114</f>
         <v>7.1020409009122071E-2</v>
       </c>
-      <c r="L94" s="64">
+      <c r="L94" s="62">
         <f>O118</f>
         <v>6.1940175698895428E-2</v>
       </c>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
-      <c r="O94" s="64">
+      <c r="M94" s="62"/>
+      <c r="N94" s="62"/>
+      <c r="O94" s="62">
         <f>S114</f>
         <v>3.6037023506665239E-2</v>
       </c>
-      <c r="P94" s="64">
+      <c r="P94" s="62">
         <f>S118</f>
         <v>2.6945755989701607E-2</v>
       </c>
       <c r="R94" s="37" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="S94" s="37">
         <v>1.4</v>
@@ -66920,10 +66957,10 @@
       <c r="AB94" s="41">
         <v>5.1960063225000002E-3</v>
       </c>
-      <c r="AC94" s="59">
+      <c r="AC94" s="57">
         <v>2.8920026625E-3</v>
       </c>
-      <c r="AD94" s="59">
+      <c r="AD94" s="57">
         <v>2.185839045E-3</v>
       </c>
       <c r="AF94" s="6">
@@ -66960,37 +66997,37 @@
       <c r="AT94" s="37"/>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="62">
         <v>9.4971746999999995E-3</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="62">
         <v>9.1480569999999994E-3</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64">
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62">
         <v>2.8187477000000002E-3</v>
       </c>
-      <c r="H95" s="64">
+      <c r="H95" s="62">
         <v>2.3962810000000001E-3</v>
       </c>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64">
+      <c r="I95" s="62"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62">
         <v>4.3729016000000004E-3</v>
       </c>
-      <c r="L95" s="64">
+      <c r="L95" s="62">
         <v>2.5943702E-3</v>
       </c>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64">
+      <c r="M95" s="62"/>
+      <c r="N95" s="62"/>
+      <c r="O95" s="62">
         <v>8.6272303999999998E-4</v>
       </c>
-      <c r="P95" s="64">
+      <c r="P95" s="62">
         <v>6.4785845000000001E-4</v>
       </c>
       <c r="R95" s="37">
@@ -67023,10 +67060,10 @@
       <c r="AB95" s="41">
         <v>3.8915552999999997E-4</v>
       </c>
-      <c r="AC95" s="59">
+      <c r="AC95" s="57">
         <v>1.2940845599999999E-4</v>
       </c>
-      <c r="AD95" s="59">
+      <c r="AD95" s="57">
         <v>9.7178767499999993E-5</v>
       </c>
       <c r="AF95" s="6">
@@ -67066,41 +67103,41 @@
       <c r="AT95" s="37"/>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="62">
         <v>5.1269298E-3</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="62">
         <v>5.3875301999999998E-3</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64">
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62">
         <v>1.7575132999999999E-3</v>
       </c>
-      <c r="H96" s="64">
+      <c r="H96" s="62">
         <v>1.5374322000000001E-3</v>
       </c>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64">
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="62">
         <v>2.9552506000000002E-3</v>
       </c>
-      <c r="L96" s="64">
+      <c r="L96" s="62">
         <v>1.8094548999999999E-3</v>
       </c>
-      <c r="M96" s="64"/>
-      <c r="N96" s="64"/>
-      <c r="O96" s="64">
+      <c r="M96" s="62"/>
+      <c r="N96" s="62"/>
+      <c r="O96" s="62">
         <v>7.1556590999999998E-4</v>
       </c>
-      <c r="P96" s="64">
+      <c r="P96" s="62">
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="S96" s="37">
         <v>1.1499999999999999</v>
@@ -67129,10 +67166,10 @@
       <c r="AB96" s="41">
         <v>2.7141823499999998E-4</v>
       </c>
-      <c r="AC96" s="59">
+      <c r="AC96" s="57">
         <v>1.0733488649999999E-4</v>
       </c>
-      <c r="AD96" s="59">
+      <c r="AD96" s="57">
         <v>7.8116116499999991E-5</v>
       </c>
       <c r="AF96" s="6">
@@ -67172,41 +67209,41 @@
       <c r="AT96" s="37"/>
     </row>
     <row r="97" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="62">
         <v>6.2805239000000004E-3</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="62">
         <v>5.8872257000000001E-3</v>
       </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64">
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62">
         <v>2.6398433999999999E-3</v>
       </c>
-      <c r="H97" s="64">
+      <c r="H97" s="62">
         <v>2.0338168000000002E-3</v>
       </c>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64">
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62">
         <v>4.0336047999999999E-3</v>
       </c>
-      <c r="L97" s="64">
+      <c r="L97" s="62">
         <v>2.6553596000000001E-3</v>
       </c>
-      <c r="M97" s="64"/>
-      <c r="N97" s="64"/>
-      <c r="O97" s="64">
+      <c r="M97" s="62"/>
+      <c r="N97" s="62"/>
+      <c r="O97" s="62">
         <v>1.3094539E-3</v>
       </c>
-      <c r="P97" s="64">
+      <c r="P97" s="62">
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S97" s="37">
         <v>1.1499999999999999</v>
@@ -67235,10 +67272,10 @@
       <c r="AB97" s="41">
         <v>3.9830394000000001E-4</v>
       </c>
-      <c r="AC97" s="59">
+      <c r="AC97" s="57">
         <v>1.96418085E-4</v>
       </c>
-      <c r="AD97" s="59">
+      <c r="AD97" s="57">
         <v>1.2888170399999999E-4</v>
       </c>
       <c r="AF97" s="6">
@@ -67278,37 +67315,37 @@
       <c r="AT97" s="37"/>
     </row>
     <row r="98" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="64">
+      <c r="C98" s="62">
         <v>8.8556143E-3</v>
       </c>
-      <c r="D98" s="64">
+      <c r="D98" s="62">
         <v>6.8645399000000001E-3</v>
       </c>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64">
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62">
         <v>3.9857E-3</v>
       </c>
-      <c r="H98" s="64">
+      <c r="H98" s="62">
         <v>2.8455848999999998E-3</v>
       </c>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64">
+      <c r="I98" s="62"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="62">
         <v>6.2389378000000002E-3</v>
       </c>
-      <c r="L98" s="64">
+      <c r="L98" s="62">
         <v>4.9026162999999999E-3</v>
       </c>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="64">
+      <c r="M98" s="62"/>
+      <c r="N98" s="62"/>
+      <c r="O98" s="62">
         <v>2.0399495999999999E-3</v>
       </c>
-      <c r="P98" s="64">
+      <c r="P98" s="62">
         <v>1.4798375999999999E-3</v>
       </c>
       <c r="U98" s="41">
@@ -67335,10 +67372,10 @@
       <c r="AB98" s="41">
         <v>7.3539244499999993E-4</v>
       </c>
-      <c r="AC98" s="59">
+      <c r="AC98" s="57">
         <v>3.0599243999999997E-4</v>
       </c>
-      <c r="AD98" s="59">
+      <c r="AD98" s="57">
         <v>2.2197563999999998E-4</v>
       </c>
       <c r="AF98" s="6">
@@ -67378,37 +67415,37 @@
       <c r="AT98" s="37"/>
     </row>
     <row r="99" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="C99" s="64">
+      <c r="C99" s="62">
         <v>9.6151164000000001E-3</v>
       </c>
-      <c r="D99" s="64">
+      <c r="D99" s="62">
         <v>8.0548313000000007E-3</v>
       </c>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64">
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62">
         <v>4.6958737000000004E-3</v>
       </c>
-      <c r="H99" s="64">
+      <c r="H99" s="62">
         <v>3.7437826E-3</v>
       </c>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64">
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62">
         <v>8.6371413999999994E-3</v>
       </c>
-      <c r="L99" s="64">
+      <c r="L99" s="62">
         <v>8.8966859999999991E-3</v>
       </c>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64">
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="62">
         <v>2.6755803E-3</v>
       </c>
-      <c r="P99" s="64">
+      <c r="P99" s="62">
         <v>2.2203368000000001E-3</v>
       </c>
       <c r="U99" s="41">
@@ -67435,10 +67472,10 @@
       <c r="AB99" s="41">
         <v>1.3345028999999999E-3</v>
       </c>
-      <c r="AC99" s="59">
+      <c r="AC99" s="57">
         <v>4.0133704499999997E-4</v>
       </c>
-      <c r="AD99" s="59">
+      <c r="AD99" s="57">
         <v>3.3305052000000003E-4</v>
       </c>
       <c r="AF99" s="6">
@@ -67478,37 +67515,37 @@
       <c r="AT99" s="37"/>
     </row>
     <row r="100" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="64">
+      <c r="C100" s="62">
         <v>1.0607349E-2</v>
       </c>
-      <c r="D100" s="64">
+      <c r="D100" s="62">
         <v>9.1846958999999995E-3</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64">
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62">
         <v>5.6646924E-3</v>
       </c>
-      <c r="H100" s="64">
+      <c r="H100" s="62">
         <v>4.5377007000000002E-3</v>
       </c>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="64">
+      <c r="I100" s="62"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="62">
         <v>1.1624832E-2</v>
       </c>
-      <c r="L100" s="64">
+      <c r="L100" s="62">
         <v>1.2320871000000001E-2</v>
       </c>
-      <c r="M100" s="64"/>
-      <c r="N100" s="64"/>
-      <c r="O100" s="64">
+      <c r="M100" s="62"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="62">
         <v>3.6027530999999998E-3</v>
       </c>
-      <c r="P100" s="64">
+      <c r="P100" s="62">
         <v>2.8750952999999999E-3</v>
       </c>
       <c r="U100" s="41">
@@ -67535,10 +67572,10 @@
       <c r="AB100" s="41">
         <v>1.8481306499999999E-3</v>
       </c>
-      <c r="AC100" s="59">
+      <c r="AC100" s="57">
         <v>5.4041296499999993E-4</v>
       </c>
-      <c r="AD100" s="59">
+      <c r="AD100" s="57">
         <v>4.3126429499999996E-4</v>
       </c>
       <c r="AF100" s="6">
@@ -67578,37 +67615,37 @@
       <c r="AT100" s="37"/>
     </row>
     <row r="101" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C101" s="64">
+      <c r="C101" s="62">
         <v>1.2175375E-2</v>
       </c>
-      <c r="D101" s="64">
+      <c r="D101" s="62">
         <v>1.0401812999999999E-2</v>
       </c>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64">
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62">
         <v>7.1162444E-3</v>
       </c>
-      <c r="H101" s="64">
+      <c r="H101" s="62">
         <v>5.5269626000000001E-3</v>
       </c>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64">
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62">
         <v>1.5964167000000001E-2</v>
       </c>
-      <c r="L101" s="64">
+      <c r="L101" s="62">
         <v>1.6142928000000001E-2</v>
       </c>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64">
+      <c r="M101" s="62"/>
+      <c r="N101" s="62"/>
+      <c r="O101" s="62">
         <v>5.0245721999999998E-3</v>
       </c>
-      <c r="P101" s="64">
+      <c r="P101" s="62">
         <v>3.7959793999999998E-3</v>
       </c>
       <c r="U101" s="41">
@@ -67635,10 +67672,10 @@
       <c r="AB101" s="41">
         <v>2.4214392000000001E-3</v>
       </c>
-      <c r="AC101" s="59">
+      <c r="AC101" s="57">
         <v>7.5368582999999997E-4</v>
       </c>
-      <c r="AD101" s="59">
+      <c r="AD101" s="57">
         <v>5.6939690999999995E-4</v>
       </c>
       <c r="AF101" s="6">
@@ -67678,37 +67715,37 @@
       <c r="AT101" s="37"/>
     </row>
     <row r="102" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="C102" s="64">
+      <c r="C102" s="62">
         <v>1.4291844999999999E-2</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="62">
         <v>1.1626762000000001E-2</v>
       </c>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64">
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62">
         <v>8.7997258999999994E-3</v>
       </c>
-      <c r="H102" s="64">
+      <c r="H102" s="62">
         <v>6.5853329E-3</v>
       </c>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64">
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62">
         <v>1.9293680000000001E-2</v>
       </c>
-      <c r="L102" s="64">
+      <c r="L102" s="62">
         <v>1.6677626000000001E-2</v>
       </c>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64">
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62">
         <v>6.5006415000000003E-3</v>
       </c>
-      <c r="P102" s="64">
+      <c r="P102" s="62">
         <v>4.8081104999999997E-3</v>
       </c>
       <c r="U102" s="41">
@@ -67735,10 +67772,10 @@
       <c r="AB102" s="41">
         <v>2.5016438999999999E-3</v>
       </c>
-      <c r="AC102" s="59">
+      <c r="AC102" s="57">
         <v>9.7509622500000003E-4</v>
       </c>
-      <c r="AD102" s="59">
+      <c r="AD102" s="57">
         <v>7.2121657499999998E-4</v>
       </c>
       <c r="AF102" s="6">
@@ -67778,37 +67815,37 @@
       <c r="AT102" s="37"/>
     </row>
     <row r="103" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="64">
+      <c r="C103" s="62">
         <v>1.6435460999999998E-2</v>
       </c>
-      <c r="D103" s="64">
+      <c r="D103" s="62">
         <v>1.2549101999999999E-2</v>
       </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64">
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62">
         <v>1.0865725E-2</v>
       </c>
-      <c r="H103" s="64">
+      <c r="H103" s="62">
         <v>7.5736190000000002E-3</v>
       </c>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64">
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62">
         <v>2.2586253000000001E-2</v>
       </c>
-      <c r="L103" s="64">
+      <c r="L103" s="62">
         <v>1.7601650999999999E-2</v>
       </c>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64">
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62">
         <v>8.5831359999999999E-3</v>
       </c>
-      <c r="P103" s="64">
+      <c r="P103" s="62">
         <v>5.9388258000000003E-3</v>
       </c>
       <c r="U103" s="41">
@@ -67835,10 +67872,10 @@
       <c r="AB103" s="41">
         <v>2.6402476499999997E-3</v>
       </c>
-      <c r="AC103" s="59">
+      <c r="AC103" s="57">
         <v>1.2874703999999999E-3</v>
       </c>
-      <c r="AD103" s="59">
+      <c r="AD103" s="57">
         <v>8.9082387E-4</v>
       </c>
       <c r="AF103" s="6">
@@ -67878,37 +67915,37 @@
       <c r="AT103" s="37"/>
     </row>
     <row r="104" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="C104" s="64">
+      <c r="C104" s="62">
         <v>2.0325749000000001E-2</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="62">
         <v>1.5731574000000002E-2</v>
       </c>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64">
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62">
         <v>1.4523025E-2</v>
       </c>
-      <c r="H104" s="64">
+      <c r="H104" s="62">
         <v>9.9609430999999995E-3</v>
       </c>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="64">
+      <c r="I104" s="62"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62">
         <v>2.6900196000000001E-2</v>
       </c>
-      <c r="L104" s="64">
+      <c r="L104" s="62">
         <v>1.9200292000000001E-2</v>
       </c>
-      <c r="M104" s="64"/>
-      <c r="N104" s="64"/>
-      <c r="O104" s="64">
+      <c r="M104" s="62"/>
+      <c r="N104" s="62"/>
+      <c r="O104" s="62">
         <v>1.2106344999999999E-2</v>
       </c>
-      <c r="P104" s="64">
+      <c r="P104" s="62">
         <v>7.9175652000000006E-3</v>
       </c>
       <c r="U104" s="41">
@@ -67935,10 +67972,10 @@
       <c r="AB104" s="41">
         <v>2.8800437999999999E-3</v>
       </c>
-      <c r="AC104" s="59">
+      <c r="AC104" s="57">
         <v>1.8159517499999997E-3</v>
       </c>
-      <c r="AD104" s="59">
+      <c r="AD104" s="57">
         <v>1.18763478E-3</v>
       </c>
       <c r="AF104" s="6">
@@ -67978,37 +68015,37 @@
       <c r="AT104" s="37"/>
     </row>
     <row r="105" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="C105" s="64">
+      <c r="C105" s="62">
         <v>2.5028631999999999E-2</v>
       </c>
-      <c r="D105" s="64">
+      <c r="D105" s="62">
         <v>2.0328145999999998E-2</v>
       </c>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64">
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62">
         <v>1.8907543999999998E-2</v>
       </c>
-      <c r="H105" s="64">
+      <c r="H105" s="62">
         <v>1.3199353E-2</v>
       </c>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64">
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62">
         <v>3.2764234000000003E-2</v>
       </c>
-      <c r="L105" s="64">
+      <c r="L105" s="62">
         <v>2.2089925999999999E-2</v>
       </c>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64">
+      <c r="M105" s="62"/>
+      <c r="N105" s="62"/>
+      <c r="O105" s="62">
         <v>1.6280447E-2</v>
       </c>
-      <c r="P105" s="64">
+      <c r="P105" s="62">
         <v>1.0287619E-2</v>
       </c>
       <c r="U105" s="41">
@@ -68035,10 +68072,10 @@
       <c r="AB105" s="41">
         <v>3.3134888999999997E-3</v>
       </c>
-      <c r="AC105" s="59">
+      <c r="AC105" s="57">
         <v>2.4420670499999998E-3</v>
       </c>
-      <c r="AD105" s="59">
+      <c r="AD105" s="57">
         <v>1.5431428499999998E-3</v>
       </c>
       <c r="AF105" s="6">
@@ -68078,37 +68115,37 @@
       <c r="AT105" s="37"/>
     </row>
     <row r="106" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B106" s="64" t="s">
+      <c r="B106" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="C106" s="64">
+      <c r="C106" s="62">
         <v>3.4517134999999997E-2</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="62">
         <v>2.9738164000000001E-2</v>
       </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64">
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62">
         <v>2.7645844999999999E-2</v>
       </c>
-      <c r="H106" s="64">
+      <c r="H106" s="62">
         <v>2.0014533000000001E-2</v>
       </c>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64">
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62">
         <v>4.3664857000000001E-2</v>
       </c>
-      <c r="L106" s="64">
+      <c r="L106" s="62">
         <v>2.8411806000000001E-2</v>
       </c>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64">
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62">
         <v>2.4070646000000001E-2</v>
       </c>
-      <c r="P106" s="64">
+      <c r="P106" s="62">
         <v>1.5019296999999999E-2</v>
       </c>
       <c r="U106" s="41">
@@ -68135,10 +68172,10 @@
       <c r="AB106" s="41">
         <v>4.2617708999999997E-3</v>
       </c>
-      <c r="AC106" s="59">
+      <c r="AC106" s="57">
         <v>3.6105969000000001E-3</v>
       </c>
-      <c r="AD106" s="59">
+      <c r="AD106" s="57">
         <v>2.2528945499999996E-3</v>
       </c>
       <c r="AF106" s="6">
@@ -68178,37 +68215,37 @@
       <c r="AT106" s="37"/>
     </row>
     <row r="107" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="64">
+      <c r="C107" s="62">
         <v>4.9521377999999998E-2</v>
       </c>
-      <c r="D107" s="64">
+      <c r="D107" s="62">
         <v>4.4950836000000001E-2</v>
       </c>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64">
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62">
         <v>4.1897086E-2</v>
       </c>
-      <c r="H107" s="64">
+      <c r="H107" s="62">
         <v>3.2225779000000003E-2</v>
       </c>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64">
+      <c r="I107" s="62"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62">
         <v>6.1229464999999997E-2</v>
       </c>
-      <c r="L107" s="64">
+      <c r="L107" s="62">
         <v>4.0120202000000001E-2</v>
       </c>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64">
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62">
         <v>3.6466032000000002E-2</v>
       </c>
-      <c r="P107" s="64">
+      <c r="P107" s="62">
         <v>2.3855056999999999E-2</v>
       </c>
       <c r="U107" s="41">
@@ -68235,10 +68272,10 @@
       <c r="AB107" s="41">
         <v>6.0180303000000003E-3</v>
       </c>
-      <c r="AC107" s="59">
+      <c r="AC107" s="57">
         <v>5.4699048000000005E-3</v>
       </c>
-      <c r="AD107" s="59">
+      <c r="AD107" s="57">
         <v>3.5782585499999995E-3</v>
       </c>
       <c r="AF107" s="6">
@@ -68278,37 +68315,37 @@
       <c r="AT107" s="37"/>
     </row>
     <row r="108" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B108" s="64" t="s">
+      <c r="B108" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="C108" s="64">
+      <c r="C108" s="62">
         <v>7.5421848E-2</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="62">
         <v>7.0557852000000004E-2</v>
       </c>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64">
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62">
         <v>6.6436233999999997E-2</v>
       </c>
-      <c r="H108" s="64">
+      <c r="H108" s="62">
         <v>5.4043418000000003E-2</v>
       </c>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64">
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62">
         <v>9.1149208999999995E-2</v>
       </c>
-      <c r="L108" s="64">
+      <c r="L108" s="62">
         <v>6.1236934999999999E-2</v>
       </c>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64">
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62">
         <v>5.6283541999999999E-2</v>
       </c>
-      <c r="P108" s="64">
+      <c r="P108" s="62">
         <v>3.9298120999999998E-2</v>
       </c>
       <c r="U108" s="41">
@@ -68335,10 +68372,10 @@
       <c r="AB108" s="41">
         <v>9.1855402499999989E-3</v>
       </c>
-      <c r="AC108" s="59">
+      <c r="AC108" s="57">
         <v>8.4425313000000002E-3</v>
       </c>
-      <c r="AD108" s="59">
+      <c r="AD108" s="57">
         <v>5.8947181499999996E-3</v>
       </c>
       <c r="AF108" s="6">
@@ -68378,37 +68415,37 @@
       <c r="AT108" s="37"/>
     </row>
     <row r="109" spans="2:46" x14ac:dyDescent="0.45">
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="64">
+      <c r="C109" s="62">
         <v>0.11632903</v>
       </c>
-      <c r="D109" s="64">
+      <c r="D109" s="62">
         <v>0.10963367</v>
       </c>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64">
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62">
         <v>0.10754548999999999</v>
       </c>
-      <c r="H109" s="64">
+      <c r="H109" s="62">
         <v>9.0690460000000001E-2</v>
       </c>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="64">
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="62">
         <v>0.13845341999999999</v>
       </c>
-      <c r="L109" s="64">
+      <c r="L109" s="62">
         <v>9.5988402E-2</v>
       </c>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
-      <c r="O109" s="64">
+      <c r="M109" s="62"/>
+      <c r="N109" s="62"/>
+      <c r="O109" s="62">
         <v>8.9232522999999994E-2</v>
       </c>
-      <c r="P109" s="64">
+      <c r="P109" s="62">
         <v>6.5775560999999996E-2</v>
       </c>
       <c r="U109" s="41">
@@ -68435,10 +68472,10 @@
       <c r="AB109" s="41">
         <v>1.43982603E-2</v>
       </c>
-      <c r="AC109" s="59">
+      <c r="AC109" s="57">
         <v>1.3384878449999998E-2</v>
       </c>
-      <c r="AD109" s="59">
+      <c r="AD109" s="57">
         <v>9.8663341499999994E-3</v>
       </c>
       <c r="AF109" s="6">
@@ -68527,13 +68564,13 @@
         <v>1079</v>
       </c>
       <c r="O113" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="S113" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.45">
@@ -69790,7 +69827,7 @@
         <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
@@ -70404,7 +70441,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -71316,13 +71353,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -71352,12 +71389,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.45">
@@ -71365,15 +71402,15 @@
         <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E210" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C211">
         <v>36</v>
@@ -71384,7 +71421,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C212">
         <v>67</v>
@@ -71395,7 +71432,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C213">
         <v>51</v>
@@ -71406,7 +71443,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -71417,7 +71454,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -71465,226 +71502,226 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C222" s="64" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D222" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E222" s="64" t="s">
         <v>1178</v>
       </c>
-      <c r="C222" s="66" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D222" s="66" t="s">
+      <c r="F222" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="G222" s="65" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H222" s="65" t="s">
         <v>1176</v>
       </c>
-      <c r="E222" s="66" t="s">
+      <c r="I222" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="J222" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="K222" s="66" t="s">
+        <v>645</v>
+      </c>
+      <c r="L222" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="M222" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="N222" s="67" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O222" s="67" t="s">
         <v>1179</v>
       </c>
-      <c r="F222" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="G222" s="67" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H222" s="67" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I222" s="67" t="s">
-        <v>575</v>
-      </c>
-      <c r="J222" s="67" t="s">
-        <v>576</v>
-      </c>
-      <c r="K222" s="68" t="s">
-        <v>645</v>
-      </c>
-      <c r="L222" s="68" t="s">
-        <v>575</v>
-      </c>
-      <c r="M222" s="68" t="s">
-        <v>576</v>
-      </c>
-      <c r="N222" s="69" t="s">
-        <v>1206</v>
-      </c>
-      <c r="O222" s="69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="P222" s="69" t="s">
-        <v>1198</v>
+      <c r="P222" s="67" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B223" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C223" s="66" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C223" s="64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D223" s="64">
+        <v>22.2</v>
+      </c>
+      <c r="E223" s="64">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F223" s="64">
+        <v>29.8</v>
+      </c>
+      <c r="G223" s="65" t="s">
         <v>1183</v>
       </c>
-      <c r="D223" s="66">
-        <v>22.2</v>
-      </c>
-      <c r="E223" s="66">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F223" s="66">
-        <v>29.8</v>
-      </c>
-      <c r="G223" s="67" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H223" s="67">
+      <c r="H223" s="65">
         <v>76.900000000000006</v>
       </c>
-      <c r="I223" s="67">
+      <c r="I223" s="65">
         <v>46</v>
       </c>
-      <c r="J223" s="67">
+      <c r="J223" s="65">
         <v>93.8</v>
       </c>
-      <c r="K223" s="68">
+      <c r="K223" s="66">
         <v>26.5</v>
       </c>
-      <c r="L223" s="68">
+      <c r="L223" s="66">
         <v>19.7</v>
       </c>
-      <c r="M223" s="68">
+      <c r="M223" s="66">
         <v>33.299999999999997</v>
       </c>
-      <c r="N223" s="69">
+      <c r="N223" s="67">
         <v>7.8</v>
       </c>
-      <c r="O223" s="69" t="s">
+      <c r="O223" s="67" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P223" s="67" t="s">
         <v>1204</v>
-      </c>
-      <c r="P223" s="69" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B224" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C224" s="66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D224" s="64">
+        <v>15.8</v>
+      </c>
+      <c r="E224" s="64">
+        <v>13.8</v>
+      </c>
+      <c r="F224" s="64">
+        <v>17.7</v>
+      </c>
+      <c r="G224" s="65" t="s">
         <v>1187</v>
       </c>
-      <c r="D224" s="66">
-        <v>15.8</v>
-      </c>
-      <c r="E224" s="66">
-        <v>13.8</v>
-      </c>
-      <c r="F224" s="66">
-        <v>17.7</v>
-      </c>
-      <c r="G224" s="67" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H224" s="67">
+      <c r="H224" s="65">
         <v>25.7</v>
       </c>
-      <c r="I224" s="67">
+      <c r="I224" s="65">
         <v>18.5</v>
       </c>
-      <c r="J224" s="67">
+      <c r="J224" s="65">
         <v>33</v>
       </c>
-      <c r="K224" s="68">
+      <c r="K224" s="66">
         <v>16.2</v>
       </c>
-      <c r="L224" s="68">
+      <c r="L224" s="66">
         <v>14.5</v>
       </c>
-      <c r="M224" s="68">
+      <c r="M224" s="66">
         <v>17.899999999999999</v>
       </c>
-      <c r="N224" s="70">
+      <c r="N224" s="68">
         <f>140/(1813)*100</f>
         <v>7.7220077220077217</v>
       </c>
-      <c r="O224" s="69" t="s">
-        <v>1199</v>
-      </c>
-      <c r="P224" s="69">
+      <c r="O224" s="67" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P224" s="67">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B225" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C225" s="64" t="s">
         <v>1189</v>
       </c>
-      <c r="C225" s="66" t="s">
+      <c r="D225" s="64">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E225" s="64">
+        <v>35.6</v>
+      </c>
+      <c r="F225" s="64">
+        <v>41.8</v>
+      </c>
+      <c r="G225" s="65" t="s">
         <v>1190</v>
       </c>
-      <c r="D225" s="66">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E225" s="66">
-        <v>35.6</v>
-      </c>
-      <c r="F225" s="66">
-        <v>41.8</v>
-      </c>
-      <c r="G225" s="67" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H225" s="67">
+      <c r="H225" s="65">
         <v>74.099999999999994</v>
       </c>
-      <c r="I225" s="67">
+      <c r="I225" s="65">
         <v>69.599999999999994</v>
       </c>
-      <c r="J225" s="67">
+      <c r="J225" s="65">
         <v>78.2</v>
       </c>
-      <c r="K225" s="68">
+      <c r="K225" s="66">
         <v>49.3</v>
       </c>
-      <c r="L225" s="68" t="s">
+      <c r="L225" s="66" t="s">
         <v>530</v>
       </c>
-      <c r="M225" s="68" t="s">
+      <c r="M225" s="66" t="s">
         <v>530</v>
       </c>
-      <c r="N225" s="69">
+      <c r="N225" s="67">
         <v>30</v>
       </c>
-      <c r="O225" s="69" t="s">
-        <v>1207</v>
-      </c>
-      <c r="P225" s="69">
+      <c r="O225" s="67" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P225" s="67">
         <v>2006</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M227" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M228" t="s">
         <v>559</v>
@@ -71704,7 +71741,7 @@
         <v>106</v>
       </c>
       <c r="E229" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F229" t="s">
         <v>575</v>
@@ -71719,10 +71756,10 @@
         <v>106</v>
       </c>
       <c r="K229" s="37" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M229" t="s">
         <v>1201</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1202</v>
       </c>
       <c r="N229" t="s">
         <v>575</v>
@@ -71731,7 +71768,7 @@
         <v>576</v>
       </c>
       <c r="P229" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q229" s="37" t="s">
         <v>575</v>
@@ -71742,7 +71779,7 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -72024,7 +72061,7 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C236">
         <v>54</v>
@@ -72071,7 +72108,7 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I238" s="37" t="s">
         <v>559</v>
@@ -72274,7 +72311,7 @@
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B244" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C244">
         <v>189</v>
@@ -72723,12 +72760,12 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -72752,7 +72789,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C59" s="18">
         <v>0.13100000000000001</v>
@@ -72774,7 +72811,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C61" s="18">
         <v>0.27400000000000002</v>
@@ -72786,17 +72823,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
@@ -72809,7 +72846,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -73568,30 +73605,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="37" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E66" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F66" t="s">
         <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -73647,13 +73684,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C70">
         <v>1.2</v>
       </c>
       <c r="E70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F70">
         <v>11.099999999999994</v>
@@ -73681,7 +73718,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -73996,292 +74033,292 @@
       </c>
     </row>
     <row r="44" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84" t="s">
+      <c r="B44" s="82"/>
+      <c r="C44" s="82" t="s">
         <v>643</v>
       </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="84" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D45" s="84" t="s">
+      <c r="C45" s="82" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E45" s="82" t="s">
         <v>1162</v>
       </c>
-      <c r="E45" s="84" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F45" s="84" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G45" s="84" t="s">
+      <c r="F45" s="82" t="s">
         <v>1346</v>
       </c>
+      <c r="G45" s="82" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="82">
         <v>0</v>
       </c>
-      <c r="D46" s="84">
+      <c r="D46" s="82">
         <v>1</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="82">
         <v>2</v>
       </c>
-      <c r="F46" s="84">
+      <c r="F46" s="82">
         <v>0</v>
       </c>
-      <c r="G46" s="85">
+      <c r="G46" s="83">
         <v>0.71663276482550398</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="82">
         <v>1.67</v>
       </c>
-      <c r="D47" s="84">
+      <c r="D47" s="82">
         <v>12</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="82">
         <v>3</v>
       </c>
-      <c r="F47" s="84">
+      <c r="F47" s="82">
         <v>1</v>
       </c>
-      <c r="G47" s="85">
+      <c r="G47" s="83">
         <v>0.84806759505553897</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="82">
         <v>3.63</v>
       </c>
-      <c r="D48" s="84">
+      <c r="D48" s="82">
         <v>34</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="82">
         <v>7</v>
       </c>
-      <c r="F48" s="84">
+      <c r="F48" s="82">
         <v>7</v>
       </c>
-      <c r="G48" s="85">
+      <c r="G48" s="83">
         <v>7.9909247379126498</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="82">
         <v>14.37</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="82">
         <v>86</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="82">
         <v>21</v>
       </c>
-      <c r="F49" s="84">
+      <c r="F49" s="82">
         <v>9</v>
       </c>
-      <c r="G49" s="85">
+      <c r="G49" s="83">
         <v>20.976373024565699</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C50" s="82">
         <v>41.72</v>
       </c>
-      <c r="D50" s="84">
+      <c r="D50" s="82">
         <v>156</v>
       </c>
-      <c r="E50" s="84">
+      <c r="E50" s="82">
         <v>27</v>
       </c>
-      <c r="F50" s="84">
+      <c r="F50" s="82">
         <v>24</v>
       </c>
-      <c r="G50" s="85">
+      <c r="G50" s="83">
         <v>40.716632764825398</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="82">
         <v>70.34</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D51" s="82">
         <v>187</v>
       </c>
-      <c r="E51" s="84">
+      <c r="E51" s="82">
         <v>35</v>
       </c>
-      <c r="F51" s="84">
+      <c r="F51" s="82">
         <v>28</v>
       </c>
-      <c r="G51" s="85">
+      <c r="G51" s="83">
         <v>62.664684712877403</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="82">
         <v>74.19</v>
       </c>
-      <c r="D52" s="84">
+      <c r="D52" s="82">
         <v>163</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="82">
         <v>36</v>
       </c>
-      <c r="F52" s="84">
+      <c r="F52" s="82">
         <v>31</v>
       </c>
-      <c r="G52" s="85">
+      <c r="G52" s="83">
         <v>83.052730402127906</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="82">
         <v>127.79</v>
       </c>
-      <c r="D53" s="84">
+      <c r="D53" s="82">
         <v>144</v>
       </c>
-      <c r="E53" s="84">
+      <c r="E53" s="82">
         <v>27</v>
       </c>
-      <c r="F53" s="84">
+      <c r="F53" s="82">
         <v>30</v>
       </c>
-      <c r="G53" s="85">
+      <c r="G53" s="83">
         <v>103.442340791738</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="82">
         <v>148.35</v>
       </c>
-      <c r="D54" s="84">
+      <c r="D54" s="82">
         <v>120</v>
       </c>
-      <c r="E54" s="84">
+      <c r="E54" s="82">
         <v>21</v>
       </c>
-      <c r="F54" s="84">
+      <c r="F54" s="82">
         <v>23</v>
       </c>
-      <c r="G54" s="85">
+      <c r="G54" s="83">
         <v>130.32389297449501</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="82">
         <v>193.66</v>
       </c>
-      <c r="D55" s="84">
+      <c r="D55" s="82">
         <v>90</v>
       </c>
-      <c r="E55" s="84">
+      <c r="E55" s="82">
         <v>15</v>
       </c>
-      <c r="F55" s="84">
+      <c r="F55" s="82">
         <v>23</v>
       </c>
-      <c r="G55" s="85">
+      <c r="G55" s="83">
         <v>150.45376310436501</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="82">
         <v>199.95</v>
       </c>
-      <c r="D56" s="84">
+      <c r="D56" s="82">
         <v>57</v>
       </c>
-      <c r="E56" s="84">
+      <c r="E56" s="82">
         <v>11</v>
       </c>
-      <c r="F56" s="84">
+      <c r="F56" s="82">
         <v>11</v>
       </c>
-      <c r="G56" s="85">
+      <c r="G56" s="83">
         <v>156.29791894852099</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="82">
         <v>170.4</v>
       </c>
-      <c r="D57" s="84">
+      <c r="D57" s="82">
         <v>40</v>
       </c>
-      <c r="E57" s="84">
+      <c r="E57" s="82">
         <v>9</v>
       </c>
-      <c r="F57" s="84">
+      <c r="F57" s="82">
         <v>15</v>
       </c>
-      <c r="G57" s="85">
+      <c r="G57" s="83">
         <v>150.71350336410501</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="82" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="82">
         <v>134.78</v>
       </c>
-      <c r="D58" s="84">
+      <c r="D58" s="82">
         <v>48</v>
       </c>
-      <c r="E58" s="84">
+      <c r="E58" s="82">
         <v>15</v>
       </c>
-      <c r="F58" s="84">
+      <c r="F58" s="82">
         <v>10</v>
       </c>
-      <c r="G58" s="85">
+      <c r="G58" s="83">
         <v>133.18103583163801</v>
       </c>
     </row>
@@ -74418,12 +74455,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C79">
         <v>20.5</v>
@@ -74437,12 +74474,12 @@
         <v>32.5</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
@@ -74452,23 +74489,23 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.45">
@@ -74481,7 +74518,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C89">
         <v>42.7</v>
@@ -74511,7 +74548,7 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="37"/>
       <c r="B91" s="37" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -74841,13 +74878,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
